--- a/Core/M5 Core Detailed Comparison.xlsx
+++ b/Core/M5 Core Detailed Comparison.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\github_code\M5-Schematic\Core\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEF5341-E430-48F6-825B-D75677276639}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="English" r:id="rId3" sheetId="1"/>
-    <sheet name="中文" r:id="rId4" sheetId="2"/>
-    <sheet name="日本語" r:id="rId5" sheetId="3"/>
+    <sheet name="English" sheetId="1" r:id="rId1"/>
+    <sheet name="中文" sheetId="2" r:id="rId2"/>
+    <sheet name="日本語" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="117">
   <si>
     <t>Core</t>
   </si>
@@ -175,12 +183,6 @@
   </si>
   <si>
     <t>150mAh @ 3.7V</t>
-  </si>
-  <si>
-    <t>550mAh @ 3.7V</t>
-  </si>
-  <si>
-    <t>600mAh @ 3.7V</t>
   </si>
   <si>
     <t>80mAh</t>
@@ -524,84 +526,277 @@
 · Brick
 · 1x Type-C USB ケーブル</t>
   </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">MB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(old: 4MB)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>mAh @ 3.7V</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0mAh @ 3.7V</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">MB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>旧：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4MB)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>0mAh @ 3.7V</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>mAh @ 3.7V</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">MB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>旧：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4MB)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <strike val="false"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <strike val="false"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="Calibri"/>
-      <sz val="9.0"/>
-      <u val="none"/>
-      <strike val="false"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="none"/>
-      <strike val="false"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <strike val="false"/>
-      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="9CC2E5"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CC2E5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="9CC2E5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="D8D8D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="D8D8D8"/>
+        <fgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -610,174 +805,136 @@
       <diagonal/>
     </border>
     <border>
-      <bottom>
-        <color rgb="2B2B2B"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="2B2B2B"/>
-      </bottom>
-    </border>
-    <border>
-      <top>
-        <color rgb="2B2B2B"/>
+      <left style="thin">
+        <color rgb="FF2B2B2B"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF2B2B2B"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF2B2B2B"/>
       </top>
       <bottom style="thin">
-        <color rgb="2B2B2B"/>
+        <color rgb="FF2B2B2B"/>
       </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="2B2B2B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="2B2B2B"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="2B2B2B"/>
-      </left>
-      <top style="thin">
-        <color rgb="2B2B2B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="2B2B2B"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="2B2B2B"/>
-      </left>
-      <top style="thin">
-        <color rgb="2B2B2B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="2B2B2B"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="2B2B2B"/>
-      </left>
-      <right>
-        <color rgb="2B2B2B"/>
-      </right>
-      <top style="thin">
-        <color rgb="2B2B2B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="2B2B2B"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="2B2B2B"/>
-      </left>
-      <right style="thin">
-        <color rgb="2B2B2B"/>
-      </right>
-      <top style="thin">
-        <color rgb="2B2B2B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="2B2B2B"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -793,13 +950,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -831,13 +994,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -869,13 +1038,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -907,13 +1082,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -945,13 +1126,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -983,13 +1170,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1021,13 +1214,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1059,13 +1258,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="9" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1086,7 +1291,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1102,13 +1307,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1140,13 +1351,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1178,13 +1395,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1216,13 +1439,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1254,13 +1483,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1292,13 +1527,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1330,13 +1571,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1368,13 +1615,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="9" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1395,7 +1648,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1411,13 +1664,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1449,13 +1708,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1487,13 +1752,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1525,13 +1796,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1563,13 +1840,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1601,13 +1884,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1639,13 +1928,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1677,13 +1972,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="9" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1703,483 +2004,779 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S200"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R200"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10" customHeight="false"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.433333333333332"/>
-    <col min="2" max="2" width="13.975"/>
-    <col min="3" max="3" width="22.858333333333334"/>
-    <col min="4" max="4" width="16.791666666666668"/>
-    <col min="5" max="5" width="10.183333333333332"/>
-    <col min="6" max="6" width="5.958333333333333"/>
-    <col min="7" max="7" width="11.158333333333333"/>
-    <col min="8" max="8" width="13.108333333333334"/>
-    <col min="9" max="9" width="10.4"/>
-    <col min="10" max="10" width="12.783333333333333"/>
-    <col min="11" max="11" width="10.183333333333332"/>
+    <col min="1" max="1" width="13.375"/>
+    <col min="2" max="2" width="14"/>
+    <col min="3" max="3" width="22.875"/>
+    <col min="4" max="4" width="16.75"/>
+    <col min="5" max="5" width="10.125"/>
+    <col min="6" max="6" width="6"/>
+    <col min="7" max="7" width="11.125"/>
+    <col min="8" max="8" width="13.125"/>
+    <col min="9" max="9" width="10.375"/>
+    <col min="10" max="10" width="12.75"/>
+    <col min="11" max="11" width="10.125"/>
     <col min="12" max="12" width="9.75"/>
-    <col min="13" max="13" width="12.025"/>
-    <col min="14" max="14" width="9.858333333333334"/>
-    <col min="15" max="15" width="8.775"/>
-    <col min="16" max="16" width="20.799999999999997"/>
-    <col min="17" max="17" width="8.775"/>
-    <col min="18" max="18" width="8.775"/>
+    <col min="13" max="13" width="12"/>
+    <col min="14" max="14" width="9.875"/>
+    <col min="15" max="15" width="8.75"/>
+    <col min="16" max="16" width="20.75"/>
+    <col min="17" max="18" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78.0" customHeight="true">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:18" ht="78" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s" s="10">
+      <c r="F1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s" s="10">
+      <c r="G1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" t="s" s="10">
+      <c r="N1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s" s="10">
-        <v>52</v>
+      <c r="P1" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" ht="136.0" customHeight="true">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s" s="8">
+      <c r="E2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s" s="7">
+      <c r="F2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s" s="7">
+      <c r="G2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s" s="12">
+      <c r="H2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s" s="7">
+      <c r="I2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s" s="8">
+      <c r="J2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s" s="7">
+      <c r="K2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s" s="8">
+      <c r="L2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s" s="7">
+      <c r="M2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N2" t="s" s="8">
+      <c r="N2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O2" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s" s="6">
-        <v>53</v>
+      <c r="P2" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" ht="136.0" customHeight="true">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s" s="7">
+      <c r="E3" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s" s="7">
+      <c r="G3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s" s="13">
+      <c r="H3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s" s="7">
+      <c r="I3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s" s="9">
+      <c r="J3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s" s="11">
+      <c r="K3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s" s="17">
+      <c r="L3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M3" t="s" s="11">
-        <v>42</v>
-      </c>
-      <c r="N3" t="s" s="8">
+      <c r="M3" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O3" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s" s="6">
-        <v>54</v>
+      <c r="P3" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" ht="156.0" customHeight="true">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:18" ht="156" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="8">
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s" s="7">
+      <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s" s="7">
+      <c r="G4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s" s="13">
+      <c r="H4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s" s="7">
+      <c r="I4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s" s="15">
+      <c r="J4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K4" t="s" s="16">
+      <c r="K4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s" s="17">
+      <c r="L4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M4" t="s" s="11">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="P4" t="s" s="6">
-        <v>55</v>
+      <c r="M4" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" ht="234.0" customHeight="true">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:18" ht="234" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" t="s" s="6">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s" s="7">
+      <c r="E5" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s" s="7">
+      <c r="G5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s" s="13">
+      <c r="H5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s" s="7">
+      <c r="I5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J5" t="s" s="9">
+      <c r="J5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K5" t="s" s="11">
+      <c r="K5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L5" t="s" s="17">
+      <c r="L5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M5" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="N5" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="O5" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="P5" t="s" s="6">
-        <v>56</v>
+      <c r="M5" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" ht="156.0" customHeight="true">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:18" ht="156" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" t="s" s="6">
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s" s="9">
+      <c r="E6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s" s="7">
+      <c r="F6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s" s="7">
+      <c r="G6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s" s="13">
+      <c r="H6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I6" t="s" s="7">
+      <c r="I6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J6" t="s" s="15">
+      <c r="J6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K6" t="s" s="16">
+      <c r="K6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L6" t="s" s="17">
+      <c r="L6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M6" t="s" s="11">
-        <v>42</v>
-      </c>
-      <c r="N6" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="O6" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="P6" t="s" s="6">
-        <v>57</v>
+      <c r="M6" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" ht="234.0" customHeight="true">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:18" ht="234" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" t="s" s="6">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s" s="9">
+      <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s" s="7">
+      <c r="F7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s" s="7">
+      <c r="G7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" t="s" s="13">
+      <c r="H7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s" s="7">
+      <c r="I7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s" s="15">
+      <c r="J7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K7" t="s" s="16">
+      <c r="K7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L7" t="s" s="17">
+      <c r="L7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M7" t="s" s="11">
-        <v>42</v>
-      </c>
-      <c r="N7" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="O7" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="P7" t="s" s="6">
-        <v>58</v>
+      <c r="M7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" ht="136.0" customHeight="true">
-      <c r="A8" t="s" s="3">
+    <row r="8" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" t="s" s="6">
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s" s="9">
+      <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s" s="7">
+      <c r="F8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G8" t="s" s="11">
+      <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H8" t="s" s="12">
+      <c r="H8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I8" t="s" s="14">
+      <c r="I8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J8" t="s" s="9">
+      <c r="J8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K8" t="s" s="11">
+      <c r="K8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L8" t="s" s="9">
+      <c r="L8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s" s="11">
-        <v>44</v>
+      <c r="M8" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="N8" s="9"/>
-      <c r="O8" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="P8" t="s" s="6">
-        <v>59</v>
+      <c r="O8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" ht="156.0" customHeight="true">
-      <c r="A9" t="s" s="4">
+    <row r="9" spans="1:18" ht="156" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" t="s" s="6">
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s" s="7">
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s" s="9">
+      <c r="E9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s" s="7">
+      <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s" s="11">
+      <c r="G9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H9" t="s" s="12">
+      <c r="H9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I9" t="s" s="14">
+      <c r="I9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J9" t="s" s="9">
+      <c r="J9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K9" t="s" s="11">
+      <c r="K9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L9" t="s" s="17">
+      <c r="L9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M9" t="s" s="11">
-        <v>44</v>
+      <c r="M9" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="N9" s="9"/>
-      <c r="O9" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="P9" t="s" s="6">
-        <v>60</v>
+      <c r="O9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:18">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2199,7 +2796,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2219,7 +2816,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:18">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2239,7 +2836,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:18">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2259,7 +2856,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:18">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2279,7 +2876,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:18">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2299,7 +2896,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:18">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2319,7 +2916,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:18">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2339,7 +2936,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:18">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2359,7 +2956,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:18">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2379,7 +2976,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:18">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2399,7 +2996,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:18">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2419,7 +3016,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:18">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2439,7 +3036,7 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:18">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2459,7 +3056,7 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:18">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2479,7 +3076,7 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:18">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2499,7 +3096,7 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:18">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2519,7 +3116,7 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:18">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2539,7 +3136,7 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:18">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2559,7 +3156,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:18">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2579,7 +3176,7 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:18">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2599,7 +3196,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:18">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2619,7 +3216,7 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:18">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2639,7 +3236,7 @@
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:18">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2659,7 +3256,7 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:18">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2679,7 +3276,7 @@
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:18">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2699,7 +3296,7 @@
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:18">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2719,7 +3316,7 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:18">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2739,7 +3336,7 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:18">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2759,7 +3356,7 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:18">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2779,7 +3376,7 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:18">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2799,7 +3396,7 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:18">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2819,7 +3416,7 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:18">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2839,7 +3436,7 @@
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:18">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2859,7 +3456,7 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:18">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2879,7 +3476,7 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:18">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2899,7 +3496,7 @@
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:18">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2919,7 +3516,7 @@
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:18">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2939,7 +3536,7 @@
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:18">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2959,7 +3556,7 @@
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:18">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2979,7 +3576,7 @@
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:18">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2999,7 +3596,7 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:18">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -3019,7 +3616,7 @@
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:18">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -3039,7 +3636,7 @@
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:18">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -3059,7 +3656,7 @@
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:18">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -3079,7 +3676,7 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:18">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -3099,7 +3696,7 @@
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:18">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -3119,7 +3716,7 @@
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:18">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -3139,7 +3736,7 @@
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:18">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -3159,7 +3756,7 @@
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:18">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -3179,7 +3776,7 @@
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:18">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -3199,7 +3796,7 @@
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:18">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -3219,7 +3816,7 @@
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:18">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -3239,7 +3836,7 @@
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:18">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -3259,7 +3856,7 @@
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:18">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3279,7 +3876,7 @@
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:18">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3299,7 +3896,7 @@
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:18">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3319,7 +3916,7 @@
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:18">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3339,7 +3936,7 @@
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:18">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3359,7 +3956,7 @@
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:18">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3379,7 +3976,7 @@
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:18">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3399,7 +3996,7 @@
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:18">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3419,7 +4016,7 @@
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:18">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3439,7 +4036,7 @@
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:18">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3459,7 +4056,7 @@
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:18">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3479,7 +4076,7 @@
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:18">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3499,7 +4096,7 @@
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:18">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3519,7 +4116,7 @@
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:18">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3539,7 +4136,7 @@
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:18">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3559,7 +4156,7 @@
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:18">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3579,7 +4176,7 @@
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:18">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3599,7 +4196,7 @@
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:18">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3619,7 +4216,7 @@
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:18">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3639,7 +4236,7 @@
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:18">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3659,7 +4256,7 @@
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:18">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3679,7 +4276,7 @@
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:18">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3699,7 +4296,7 @@
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:18">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3719,7 +4316,7 @@
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:18">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3739,7 +4336,7 @@
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:18">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3759,7 +4356,7 @@
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:18">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3779,7 +4376,7 @@
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:18">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3799,7 +4396,7 @@
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:18">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3819,7 +4416,7 @@
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:18">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3839,7 +4436,7 @@
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:18">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3859,7 +4456,7 @@
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:18">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3879,7 +4476,7 @@
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:18">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3899,7 +4496,7 @@
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:18">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3919,7 +4516,7 @@
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:18">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3939,7 +4536,7 @@
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:18">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3959,7 +4556,7 @@
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:18">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3979,7 +4576,7 @@
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:18">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3999,7 +4596,7 @@
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:18">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4019,7 +4616,7 @@
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:18">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -4039,7 +4636,7 @@
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:18">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -4059,7 +4656,7 @@
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:18">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -4079,7 +4676,7 @@
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:18">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -4099,7 +4696,7 @@
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:18">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -4119,7 +4716,7 @@
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:18">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -4139,7 +4736,7 @@
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:18">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -4159,7 +4756,7 @@
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:18">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -4179,7 +4776,7 @@
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:18">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -4199,7 +4796,7 @@
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:18">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -4219,7 +4816,7 @@
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:18">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -4239,7 +4836,7 @@
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:18">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -4259,7 +4856,7 @@
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:18">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -4279,7 +4876,7 @@
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:18">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -4299,7 +4896,7 @@
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:18">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -4319,7 +4916,7 @@
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:18">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -4339,7 +4936,7 @@
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:18">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4359,7 +4956,7 @@
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:18">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4379,7 +4976,7 @@
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:18">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4399,7 +4996,7 @@
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:18">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -4419,7 +5016,7 @@
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:18">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4439,7 +5036,7 @@
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:18">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4459,7 +5056,7 @@
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:18">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4479,7 +5076,7 @@
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:18">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4499,7 +5096,7 @@
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:18">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4519,7 +5116,7 @@
       <c r="Q126" s="5"/>
       <c r="R126" s="5"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:18">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4539,7 +5136,7 @@
       <c r="Q127" s="5"/>
       <c r="R127" s="5"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:18">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4559,7 +5156,7 @@
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:18">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4579,7 +5176,7 @@
       <c r="Q129" s="5"/>
       <c r="R129" s="5"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:18">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4599,7 +5196,7 @@
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:18">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4619,7 +5216,7 @@
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:18">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4639,7 +5236,7 @@
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:18">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4659,7 +5256,7 @@
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:18">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4679,7 +5276,7 @@
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:18">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4699,7 +5296,7 @@
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:18">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4719,7 +5316,7 @@
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:18">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4739,7 +5336,7 @@
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:18">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4759,7 +5356,7 @@
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:18">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4779,7 +5376,7 @@
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:18">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4799,7 +5396,7 @@
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:18">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4819,7 +5416,7 @@
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:18">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4839,7 +5436,7 @@
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:18">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4859,7 +5456,7 @@
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:18">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4879,7 +5476,7 @@
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:18">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4899,7 +5496,7 @@
       <c r="Q145" s="5"/>
       <c r="R145" s="5"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:18">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4919,7 +5516,7 @@
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:18">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4939,7 +5536,7 @@
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:18">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4959,7 +5556,7 @@
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:18">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4979,7 +5576,7 @@
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:18">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4999,7 +5596,7 @@
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:18">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -5019,7 +5616,7 @@
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:18">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -5039,7 +5636,7 @@
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:18">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -5059,7 +5656,7 @@
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:18">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -5079,7 +5676,7 @@
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:18">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -5099,7 +5696,7 @@
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:18">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -5119,7 +5716,7 @@
       <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:18">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -5139,7 +5736,7 @@
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:18">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -5159,7 +5756,7 @@
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:18">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -5179,7 +5776,7 @@
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:18">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -5199,7 +5796,7 @@
       <c r="Q160" s="5"/>
       <c r="R160" s="5"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:18">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -5219,7 +5816,7 @@
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:18">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -5239,7 +5836,7 @@
       <c r="Q162" s="5"/>
       <c r="R162" s="5"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:18">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -5259,7 +5856,7 @@
       <c r="Q163" s="5"/>
       <c r="R163" s="5"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:18">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -5279,7 +5876,7 @@
       <c r="Q164" s="5"/>
       <c r="R164" s="5"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:18">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -5299,7 +5896,7 @@
       <c r="Q165" s="5"/>
       <c r="R165" s="5"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:18">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -5319,7 +5916,7 @@
       <c r="Q166" s="5"/>
       <c r="R166" s="5"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:18">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -5339,7 +5936,7 @@
       <c r="Q167" s="5"/>
       <c r="R167" s="5"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:18">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -5359,7 +5956,7 @@
       <c r="Q168" s="5"/>
       <c r="R168" s="5"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:18">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -5379,7 +5976,7 @@
       <c r="Q169" s="5"/>
       <c r="R169" s="5"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:18">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -5399,7 +5996,7 @@
       <c r="Q170" s="5"/>
       <c r="R170" s="5"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:18">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -5419,7 +6016,7 @@
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:18">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -5439,7 +6036,7 @@
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:18">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -5459,7 +6056,7 @@
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:18">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -5479,7 +6076,7 @@
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:18">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -5499,7 +6096,7 @@
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:18">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -5519,7 +6116,7 @@
       <c r="Q176" s="5"/>
       <c r="R176" s="5"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:18">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -5539,7 +6136,7 @@
       <c r="Q177" s="5"/>
       <c r="R177" s="5"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:18">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -5559,7 +6156,7 @@
       <c r="Q178" s="5"/>
       <c r="R178" s="5"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:18">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -5579,7 +6176,7 @@
       <c r="Q179" s="5"/>
       <c r="R179" s="5"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:18">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -5599,7 +6196,7 @@
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:18">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -5619,7 +6216,7 @@
       <c r="Q181" s="5"/>
       <c r="R181" s="5"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:18">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -5639,7 +6236,7 @@
       <c r="Q182" s="5"/>
       <c r="R182" s="5"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:18">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -5659,7 +6256,7 @@
       <c r="Q183" s="5"/>
       <c r="R183" s="5"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:18">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -5679,7 +6276,7 @@
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:18">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -5699,7 +6296,7 @@
       <c r="Q185" s="5"/>
       <c r="R185" s="5"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:18">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -5719,7 +6316,7 @@
       <c r="Q186" s="5"/>
       <c r="R186" s="5"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:18">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -5739,7 +6336,7 @@
       <c r="Q187" s="5"/>
       <c r="R187" s="5"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:18">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -5759,7 +6356,7 @@
       <c r="Q188" s="5"/>
       <c r="R188" s="5"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:18">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -5779,7 +6376,7 @@
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:18">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -5799,7 +6396,7 @@
       <c r="Q190" s="5"/>
       <c r="R190" s="5"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:18">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -5819,7 +6416,7 @@
       <c r="Q191" s="5"/>
       <c r="R191" s="5"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:18">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -5839,7 +6436,7 @@
       <c r="Q192" s="5"/>
       <c r="R192" s="5"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:18">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -5859,7 +6456,7 @@
       <c r="Q193" s="5"/>
       <c r="R193" s="5"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:18">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -5879,7 +6476,7 @@
       <c r="Q194" s="5"/>
       <c r="R194" s="5"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:18">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -5899,7 +6496,7 @@
       <c r="Q195" s="5"/>
       <c r="R195" s="5"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:18">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -5919,7 +6516,7 @@
       <c r="Q196" s="5"/>
       <c r="R196" s="5"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:18">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -5939,7 +6536,7 @@
       <c r="Q197" s="5"/>
       <c r="R197" s="5"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:18">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -5959,7 +6556,7 @@
       <c r="Q198" s="5"/>
       <c r="R198" s="5"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:18">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -5979,7 +6576,7 @@
       <c r="Q199" s="5"/>
       <c r="R199" s="5"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:18">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -6000,488 +6597,491 @@
       <c r="R200" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S200"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R200"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10" customHeight="false"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.433333333333332"/>
-    <col min="2" max="2" width="13.975"/>
-    <col min="3" max="3" width="22.858333333333334"/>
-    <col min="4" max="4" width="16.791666666666668"/>
-    <col min="5" max="5" width="10.183333333333332"/>
-    <col min="6" max="6" width="5.958333333333333"/>
-    <col min="7" max="7" width="11.158333333333333"/>
-    <col min="8" max="8" width="13.108333333333334"/>
-    <col min="9" max="9" width="10.4"/>
-    <col min="10" max="10" width="12.783333333333333"/>
-    <col min="11" max="11" width="10.183333333333332"/>
+    <col min="1" max="1" width="13.375"/>
+    <col min="2" max="2" width="14"/>
+    <col min="3" max="3" width="22.875"/>
+    <col min="4" max="4" width="16.75"/>
+    <col min="5" max="5" width="10.125"/>
+    <col min="6" max="6" width="6"/>
+    <col min="7" max="7" width="11.125"/>
+    <col min="8" max="8" width="13.125"/>
+    <col min="9" max="9" width="10.375"/>
+    <col min="10" max="10" width="12.75"/>
+    <col min="11" max="11" width="10.125"/>
     <col min="12" max="12" width="9.75"/>
-    <col min="13" max="13" width="12.025"/>
-    <col min="14" max="14" width="9.858333333333334"/>
-    <col min="15" max="15" width="8.775"/>
-    <col min="16" max="16" width="20.799999999999997"/>
-    <col min="17" max="17" width="8.775"/>
-    <col min="18" max="18" width="8.775"/>
+    <col min="13" max="13" width="12"/>
+    <col min="14" max="14" width="9.875"/>
+    <col min="15" max="15" width="8.75"/>
+    <col min="16" max="16" width="20.75"/>
+    <col min="17" max="18" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.0" customHeight="true">
-      <c r="A1" t="s" s="18">
+    <row r="1" spans="1:18" ht="29.1" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="21">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s" s="21">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s" s="18">
+      <c r="B1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s" s="21">
+      <c r="E1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s" s="21">
+      <c r="H1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s" s="21">
+      <c r="I1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s" s="21">
+      <c r="J1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I1" t="s" s="21">
+      <c r="K1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="J1" t="s" s="21">
+      <c r="N1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="K1" t="s" s="18">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s" s="18">
-        <v>38</v>
-      </c>
-      <c r="M1" t="s" s="21">
+      <c r="O1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="N1" t="s" s="21">
+      <c r="P1" s="21" t="s">
         <v>74</v>
-      </c>
-      <c r="O1" t="s" s="21">
-        <v>75</v>
-      </c>
-      <c r="P1" t="s" s="21">
-        <v>76</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" ht="136.0" customHeight="true">
-      <c r="A2" t="s" s="19">
+    <row r="2" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" t="s" s="22">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s" s="14">
+      <c r="C2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s" s="14">
+      <c r="E2" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s" s="14">
+      <c r="G2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s" s="12">
+      <c r="H2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s" s="14">
+      <c r="I2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s" s="12">
+      <c r="J2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s" s="14">
+      <c r="K2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s" s="12">
+      <c r="L2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s" s="14">
+      <c r="M2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="N2" t="s" s="12">
+      <c r="N2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="O2" t="s" s="14">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s" s="22">
-        <v>77</v>
+      <c r="P2" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" ht="136.0" customHeight="true">
-      <c r="A3" t="s" s="20">
+    <row r="3" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" t="s" s="22">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s" s="14">
+      <c r="C3" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s" s="23">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s" s="14">
+      <c r="E3" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s" s="14">
+      <c r="G3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s" s="13">
+      <c r="H3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s" s="14">
+      <c r="I3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s" s="23">
+      <c r="J3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s" s="24">
+      <c r="K3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s" s="27">
+      <c r="L3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M3" t="s" s="24">
-        <v>42</v>
-      </c>
-      <c r="N3" t="s" s="12">
+      <c r="M3" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="O3" t="s" s="14">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s" s="22">
-        <v>78</v>
+      <c r="P3" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" ht="136.0" customHeight="true">
-      <c r="A4" t="s" s="20">
+    <row r="4" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" t="s" s="22">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s" s="14">
+      <c r="C4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="12">
+      <c r="E4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s" s="14">
+      <c r="F4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s" s="14">
+      <c r="G4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s" s="13">
+      <c r="H4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s" s="14">
+      <c r="I4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s" s="25">
+      <c r="J4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K4" t="s" s="26">
+      <c r="K4" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s" s="27">
+      <c r="L4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M4" t="s" s="24">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s" s="12">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s" s="14">
-        <v>49</v>
-      </c>
-      <c r="P4" t="s" s="22">
-        <v>79</v>
+      <c r="M4" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" ht="195.0" customHeight="true">
-      <c r="A5" t="s" s="20">
+    <row r="5" spans="1:18" ht="195" customHeight="1">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" t="s" s="22">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s" s="14">
+      <c r="C5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="23">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s" s="14">
+      <c r="E5" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s" s="14">
+      <c r="G5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s" s="13">
+      <c r="H5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s" s="14">
+      <c r="I5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J5" t="s" s="23">
+      <c r="J5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K5" t="s" s="24">
+      <c r="K5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L5" t="s" s="27">
+      <c r="L5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M5" t="s" s="24">
-        <v>43</v>
-      </c>
-      <c r="N5" t="s" s="12">
-        <v>46</v>
-      </c>
-      <c r="O5" t="s" s="14">
-        <v>50</v>
-      </c>
-      <c r="P5" t="s" s="22">
-        <v>80</v>
+      <c r="M5" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" ht="136.0" customHeight="true">
-      <c r="A6" t="s" s="20">
+    <row r="6" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" t="s" s="22">
-        <v>64</v>
-      </c>
-      <c r="D6" t="s" s="14">
+      <c r="C6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s" s="23">
+      <c r="E6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s" s="14">
+      <c r="F6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s" s="14">
+      <c r="G6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s" s="13">
+      <c r="H6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I6" t="s" s="14">
+      <c r="I6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J6" t="s" s="25">
+      <c r="J6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K6" t="s" s="26">
+      <c r="K6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L6" t="s" s="27">
+      <c r="L6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M6" t="s" s="24">
-        <v>42</v>
-      </c>
-      <c r="N6" t="s" s="12">
-        <v>46</v>
-      </c>
-      <c r="O6" t="s" s="14">
-        <v>49</v>
-      </c>
-      <c r="P6" t="s" s="22">
-        <v>81</v>
+      <c r="M6" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" ht="195.0" customHeight="true">
-      <c r="A7" t="s" s="20">
+    <row r="7" spans="1:18" ht="195" customHeight="1">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" t="s" s="22">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s" s="14">
+      <c r="C7" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s" s="23">
+      <c r="E7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s" s="14">
+      <c r="F7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s" s="14">
+      <c r="G7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H7" t="s" s="13">
+      <c r="H7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s" s="14">
+      <c r="I7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s" s="25">
+      <c r="J7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K7" t="s" s="26">
+      <c r="K7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L7" t="s" s="27">
+      <c r="L7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M7" t="s" s="24">
-        <v>42</v>
-      </c>
-      <c r="N7" t="s" s="12">
-        <v>46</v>
-      </c>
-      <c r="O7" t="s" s="14">
-        <v>49</v>
-      </c>
-      <c r="P7" t="s" s="22">
-        <v>82</v>
+      <c r="M7" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" ht="136.0" customHeight="true">
-      <c r="A8" t="s" s="20">
+    <row r="8" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" t="s" s="22">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s" s="14">
+      <c r="C8" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s" s="23">
+      <c r="E8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s" s="14">
+      <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G8" t="s" s="24">
+      <c r="G8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H8" t="s" s="12">
+      <c r="H8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I8" t="s" s="14">
+      <c r="I8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J8" t="s" s="23">
+      <c r="J8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K8" t="s" s="24">
+      <c r="K8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L8" t="s" s="23">
+      <c r="L8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s" s="24">
-        <v>44</v>
+      <c r="M8" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="N8" s="23"/>
-      <c r="O8" t="s" s="14">
-        <v>51</v>
-      </c>
-      <c r="P8" t="s" s="22">
-        <v>83</v>
+      <c r="O8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" ht="136.0" customHeight="true">
-      <c r="A9" t="s" s="4">
+    <row r="9" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" t="s" s="22">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s" s="14">
+      <c r="C9" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s" s="23">
+      <c r="E9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s" s="14">
+      <c r="F9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s" s="24">
+      <c r="G9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H9" t="s" s="12">
+      <c r="H9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I9" t="s" s="14">
+      <c r="I9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J9" t="s" s="23">
+      <c r="J9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K9" t="s" s="24">
+      <c r="K9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L9" t="s" s="27">
+      <c r="L9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M9" t="s" s="24">
-        <v>44</v>
+      <c r="M9" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="N9" s="23"/>
-      <c r="O9" t="s" s="14">
-        <v>51</v>
-      </c>
-      <c r="P9" t="s" s="22">
-        <v>84</v>
+      <c r="O9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:18">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -6501,7 +7101,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -6521,7 +7121,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:18">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -6541,7 +7141,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:18">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6561,7 +7161,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:18">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -6581,7 +7181,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:18">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -6601,7 +7201,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:18">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6621,7 +7221,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:18">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -6641,7 +7241,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:18">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6661,7 +7261,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:18">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6681,7 +7281,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:18">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -6701,7 +7301,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:18">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -6721,7 +7321,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:18">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -6741,7 +7341,7 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:18">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -6761,7 +7361,7 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:18">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -6781,7 +7381,7 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:18">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -6801,7 +7401,7 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:18">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -6821,7 +7421,7 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:18">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -6841,7 +7441,7 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:18">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -6861,7 +7461,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:18">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -6881,7 +7481,7 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:18">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -6901,7 +7501,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:18">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -6921,7 +7521,7 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:18">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -6941,7 +7541,7 @@
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:18">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -6961,7 +7561,7 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:18">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -6981,7 +7581,7 @@
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:18">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -7001,7 +7601,7 @@
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:18">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -7021,7 +7621,7 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:18">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -7041,7 +7641,7 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:18">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -7061,7 +7661,7 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:18">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -7081,7 +7681,7 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:18">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -7101,7 +7701,7 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:18">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -7121,7 +7721,7 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:18">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -7141,7 +7741,7 @@
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:18">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -7161,7 +7761,7 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:18">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -7181,7 +7781,7 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:18">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -7201,7 +7801,7 @@
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:18">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -7221,7 +7821,7 @@
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:18">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -7241,7 +7841,7 @@
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:18">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -7261,7 +7861,7 @@
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:18">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -7281,7 +7881,7 @@
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:18">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -7301,7 +7901,7 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:18">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -7321,7 +7921,7 @@
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:18">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -7341,7 +7941,7 @@
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:18">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -7361,7 +7961,7 @@
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:18">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -7381,7 +7981,7 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:18">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -7401,7 +8001,7 @@
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:18">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -7421,7 +8021,7 @@
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:18">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -7441,7 +8041,7 @@
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:18">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -7461,7 +8061,7 @@
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:18">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -7481,7 +8081,7 @@
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:18">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -7501,7 +8101,7 @@
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:18">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -7521,7 +8121,7 @@
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:18">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -7541,7 +8141,7 @@
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:18">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -7561,7 +8161,7 @@
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:18">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -7581,7 +8181,7 @@
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:18">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -7601,7 +8201,7 @@
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:18">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -7621,7 +8221,7 @@
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:18">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -7641,7 +8241,7 @@
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:18">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -7661,7 +8261,7 @@
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:18">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -7681,7 +8281,7 @@
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:18">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -7701,7 +8301,7 @@
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:18">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -7721,7 +8321,7 @@
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:18">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -7741,7 +8341,7 @@
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:18">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -7761,7 +8361,7 @@
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:18">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -7781,7 +8381,7 @@
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:18">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -7801,7 +8401,7 @@
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:18">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -7821,7 +8421,7 @@
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:18">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -7841,7 +8441,7 @@
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:18">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -7861,7 +8461,7 @@
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:18">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -7881,7 +8481,7 @@
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:18">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -7901,7 +8501,7 @@
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:18">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -7921,7 +8521,7 @@
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:18">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -7941,7 +8541,7 @@
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:18">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -7961,7 +8561,7 @@
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:18">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -7981,7 +8581,7 @@
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:18">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -8001,7 +8601,7 @@
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:18">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -8021,7 +8621,7 @@
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:18">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -8041,7 +8641,7 @@
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:18">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -8061,7 +8661,7 @@
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:18">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -8081,7 +8681,7 @@
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:18">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -8101,7 +8701,7 @@
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:18">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -8121,7 +8721,7 @@
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:18">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -8141,7 +8741,7 @@
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:18">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -8161,7 +8761,7 @@
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:18">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -8181,7 +8781,7 @@
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:18">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -8201,7 +8801,7 @@
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:18">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -8221,7 +8821,7 @@
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:18">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -8241,7 +8841,7 @@
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:18">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -8261,7 +8861,7 @@
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:18">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -8281,7 +8881,7 @@
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:18">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -8301,7 +8901,7 @@
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:18">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -8321,7 +8921,7 @@
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:18">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -8341,7 +8941,7 @@
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:18">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -8361,7 +8961,7 @@
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:18">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -8381,7 +8981,7 @@
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:18">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -8401,7 +9001,7 @@
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:18">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -8421,7 +9021,7 @@
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:18">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -8441,7 +9041,7 @@
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:18">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -8461,7 +9061,7 @@
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:18">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -8481,7 +9081,7 @@
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:18">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -8501,7 +9101,7 @@
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:18">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -8521,7 +9121,7 @@
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:18">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -8541,7 +9141,7 @@
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:18">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -8561,7 +9161,7 @@
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:18">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -8581,7 +9181,7 @@
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:18">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -8601,7 +9201,7 @@
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:18">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -8621,7 +9221,7 @@
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:18">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -8641,7 +9241,7 @@
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:18">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -8661,7 +9261,7 @@
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:18">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -8681,7 +9281,7 @@
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:18">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -8701,7 +9301,7 @@
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:18">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -8721,7 +9321,7 @@
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:18">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -8741,7 +9341,7 @@
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:18">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -8761,7 +9361,7 @@
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:18">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -8781,7 +9381,7 @@
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:18">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -8801,7 +9401,7 @@
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:18">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -8821,7 +9421,7 @@
       <c r="Q126" s="5"/>
       <c r="R126" s="5"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:18">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -8841,7 +9441,7 @@
       <c r="Q127" s="5"/>
       <c r="R127" s="5"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:18">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -8861,7 +9461,7 @@
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:18">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -8881,7 +9481,7 @@
       <c r="Q129" s="5"/>
       <c r="R129" s="5"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:18">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -8901,7 +9501,7 @@
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:18">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -8921,7 +9521,7 @@
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:18">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -8941,7 +9541,7 @@
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:18">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -8961,7 +9561,7 @@
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:18">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -8981,7 +9581,7 @@
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:18">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -9001,7 +9601,7 @@
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:18">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -9021,7 +9621,7 @@
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:18">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -9041,7 +9641,7 @@
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:18">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -9061,7 +9661,7 @@
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:18">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -9081,7 +9681,7 @@
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:18">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -9101,7 +9701,7 @@
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:18">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -9121,7 +9721,7 @@
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:18">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -9141,7 +9741,7 @@
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:18">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -9161,7 +9761,7 @@
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:18">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -9181,7 +9781,7 @@
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:18">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -9201,7 +9801,7 @@
       <c r="Q145" s="5"/>
       <c r="R145" s="5"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:18">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -9221,7 +9821,7 @@
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:18">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -9241,7 +9841,7 @@
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:18">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -9261,7 +9861,7 @@
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:18">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -9281,7 +9881,7 @@
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:18">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -9301,7 +9901,7 @@
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:18">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -9321,7 +9921,7 @@
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:18">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -9341,7 +9941,7 @@
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:18">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -9361,7 +9961,7 @@
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:18">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -9381,7 +9981,7 @@
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:18">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -9401,7 +10001,7 @@
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:18">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -9421,7 +10021,7 @@
       <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:18">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -9441,7 +10041,7 @@
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:18">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -9461,7 +10061,7 @@
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:18">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -9481,7 +10081,7 @@
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:18">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -9501,7 +10101,7 @@
       <c r="Q160" s="5"/>
       <c r="R160" s="5"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:18">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -9521,7 +10121,7 @@
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:18">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -9541,7 +10141,7 @@
       <c r="Q162" s="5"/>
       <c r="R162" s="5"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:18">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -9561,7 +10161,7 @@
       <c r="Q163" s="5"/>
       <c r="R163" s="5"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:18">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -9581,7 +10181,7 @@
       <c r="Q164" s="5"/>
       <c r="R164" s="5"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:18">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -9601,7 +10201,7 @@
       <c r="Q165" s="5"/>
       <c r="R165" s="5"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:18">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -9621,7 +10221,7 @@
       <c r="Q166" s="5"/>
       <c r="R166" s="5"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:18">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -9641,7 +10241,7 @@
       <c r="Q167" s="5"/>
       <c r="R167" s="5"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:18">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -9661,7 +10261,7 @@
       <c r="Q168" s="5"/>
       <c r="R168" s="5"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:18">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -9681,7 +10281,7 @@
       <c r="Q169" s="5"/>
       <c r="R169" s="5"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:18">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -9701,7 +10301,7 @@
       <c r="Q170" s="5"/>
       <c r="R170" s="5"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:18">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -9721,7 +10321,7 @@
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:18">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -9741,7 +10341,7 @@
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:18">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -9761,7 +10361,7 @@
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:18">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -9781,7 +10381,7 @@
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:18">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -9801,7 +10401,7 @@
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:18">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -9821,7 +10421,7 @@
       <c r="Q176" s="5"/>
       <c r="R176" s="5"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:18">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -9841,7 +10441,7 @@
       <c r="Q177" s="5"/>
       <c r="R177" s="5"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:18">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -9861,7 +10461,7 @@
       <c r="Q178" s="5"/>
       <c r="R178" s="5"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:18">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -9881,7 +10481,7 @@
       <c r="Q179" s="5"/>
       <c r="R179" s="5"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:18">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -9901,7 +10501,7 @@
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:18">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -9921,7 +10521,7 @@
       <c r="Q181" s="5"/>
       <c r="R181" s="5"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:18">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -9941,7 +10541,7 @@
       <c r="Q182" s="5"/>
       <c r="R182" s="5"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:18">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -9961,7 +10561,7 @@
       <c r="Q183" s="5"/>
       <c r="R183" s="5"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:18">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -9981,7 +10581,7 @@
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:18">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -10001,7 +10601,7 @@
       <c r="Q185" s="5"/>
       <c r="R185" s="5"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:18">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -10021,7 +10621,7 @@
       <c r="Q186" s="5"/>
       <c r="R186" s="5"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:18">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -10041,7 +10641,7 @@
       <c r="Q187" s="5"/>
       <c r="R187" s="5"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:18">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -10061,7 +10661,7 @@
       <c r="Q188" s="5"/>
       <c r="R188" s="5"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:18">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -10081,7 +10681,7 @@
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:18">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -10101,7 +10701,7 @@
       <c r="Q190" s="5"/>
       <c r="R190" s="5"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:18">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -10121,7 +10721,7 @@
       <c r="Q191" s="5"/>
       <c r="R191" s="5"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:18">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -10141,7 +10741,7 @@
       <c r="Q192" s="5"/>
       <c r="R192" s="5"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:18">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -10161,7 +10761,7 @@
       <c r="Q193" s="5"/>
       <c r="R193" s="5"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:18">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -10181,7 +10781,7 @@
       <c r="Q194" s="5"/>
       <c r="R194" s="5"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:18">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -10201,7 +10801,7 @@
       <c r="Q195" s="5"/>
       <c r="R195" s="5"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:18">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -10221,7 +10821,7 @@
       <c r="Q196" s="5"/>
       <c r="R196" s="5"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:18">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -10241,7 +10841,7 @@
       <c r="Q197" s="5"/>
       <c r="R197" s="5"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:18">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -10261,7 +10861,7 @@
       <c r="Q198" s="5"/>
       <c r="R198" s="5"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:18">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -10281,7 +10881,7 @@
       <c r="Q199" s="5"/>
       <c r="R199" s="5"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:18">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -10302,488 +10902,490 @@
       <c r="R200" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S200"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:R200"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10" customHeight="false"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.433333333333332"/>
-    <col min="2" max="2" width="13.975"/>
-    <col min="3" max="3" width="23.075"/>
-    <col min="4" max="4" width="20.258333333333336"/>
-    <col min="5" max="5" width="10.183333333333332"/>
-    <col min="6" max="6" width="6.933333333333334"/>
-    <col min="7" max="7" width="13.108333333333334"/>
-    <col min="8" max="8" width="17.766666666666666"/>
-    <col min="9" max="9" width="10.616666666666667"/>
-    <col min="10" max="10" width="11.483333333333334"/>
-    <col min="11" max="11" width="12.241666666666667"/>
-    <col min="12" max="12" width="11.591666666666667"/>
-    <col min="13" max="13" width="12.241666666666667"/>
-    <col min="14" max="14" width="10.616666666666667"/>
-    <col min="15" max="15" width="14.733333333333334"/>
-    <col min="16" max="16" width="23.724999999999998"/>
-    <col min="17" max="17" width="8.775"/>
-    <col min="18" max="18" width="8.775"/>
+    <col min="1" max="1" width="13.375"/>
+    <col min="2" max="2" width="14"/>
+    <col min="3" max="3" width="23.125"/>
+    <col min="4" max="4" width="20.25"/>
+    <col min="5" max="5" width="10.125"/>
+    <col min="6" max="6" width="6.875"/>
+    <col min="7" max="7" width="13.125"/>
+    <col min="8" max="8" width="17.75"/>
+    <col min="9" max="9" width="10.625"/>
+    <col min="10" max="10" width="11.5"/>
+    <col min="11" max="11" width="12.25"/>
+    <col min="12" max="12" width="11.625"/>
+    <col min="13" max="13" width="12.25"/>
+    <col min="14" max="14" width="10.625"/>
+    <col min="15" max="15" width="14.75"/>
+    <col min="16" max="16" width="23.75"/>
+    <col min="17" max="18" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.0" customHeight="true">
-      <c r="A1" t="s" s="18">
+    <row r="1" spans="1:18" ht="29.1" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="21">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s" s="21">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s" s="18">
+      <c r="B1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s" s="21">
+      <c r="E1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F1" t="s" s="21">
+      <c r="H1" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G1" t="s" s="21">
-        <v>93</v>
-      </c>
-      <c r="H1" t="s" s="21">
+      <c r="I1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I1" t="s" s="21">
+      <c r="J1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="J1" t="s" s="21">
-        <v>97</v>
-      </c>
-      <c r="K1" t="s" s="18">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s" s="18">
-        <v>38</v>
-      </c>
-      <c r="M1" t="s" s="21">
+      <c r="N1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="N1" t="s" s="21">
+      <c r="O1" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="O1" t="s" s="21">
-        <v>101</v>
-      </c>
-      <c r="P1" t="s" s="21">
-        <v>102</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" ht="117.0" customHeight="true">
-      <c r="A2" t="s" s="19">
+    <row r="2" spans="1:18" ht="117" customHeight="1">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" t="s" s="22">
-        <v>87</v>
-      </c>
-      <c r="D2" t="s" s="14">
+      <c r="C2" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s" s="12">
+      <c r="E2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s" s="14">
+      <c r="F2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s" s="14">
+      <c r="G2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s" s="12">
-        <v>95</v>
-      </c>
-      <c r="I2" t="s" s="14">
+      <c r="H2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s" s="12">
+      <c r="J2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s" s="14">
+      <c r="K2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s" s="12">
+      <c r="L2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s" s="14">
+      <c r="M2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="N2" t="s" s="12">
+      <c r="N2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="O2" t="s" s="14">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s" s="22">
-        <v>103</v>
+      <c r="P2" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" ht="117.0" customHeight="true">
-      <c r="A3" t="s" s="20">
+    <row r="3" spans="1:18" ht="117" customHeight="1">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" t="s" s="22">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s" s="14">
+      <c r="C3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s" s="23">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s" s="14">
+      <c r="E3" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s" s="14">
+      <c r="G3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s" s="13">
-        <v>95</v>
-      </c>
-      <c r="I3" t="s" s="14">
+      <c r="H3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s" s="23">
+      <c r="J3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s" s="24">
+      <c r="K3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s" s="27">
+      <c r="L3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M3" t="s" s="24">
-        <v>42</v>
-      </c>
-      <c r="N3" t="s" s="12">
+      <c r="M3" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="O3" t="s" s="14">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s" s="22">
-        <v>104</v>
+      <c r="P3" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" ht="117.0" customHeight="true">
-      <c r="A4" t="s" s="20">
+    <row r="4" spans="1:18" ht="117" customHeight="1">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" t="s" s="22">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s" s="14">
+      <c r="C4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="12">
+      <c r="E4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s" s="14">
+      <c r="F4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s" s="14">
+      <c r="G4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s" s="13">
-        <v>95</v>
-      </c>
-      <c r="I4" t="s" s="14">
+      <c r="H4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s" s="25">
+      <c r="J4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K4" t="s" s="26">
+      <c r="K4" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s" s="27">
+      <c r="L4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M4" t="s" s="24">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s" s="12">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s" s="14">
-        <v>49</v>
-      </c>
-      <c r="P4" t="s" s="22">
-        <v>105</v>
+      <c r="M4" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" ht="215.0" customHeight="true">
-      <c r="A5" t="s" s="20">
+    <row r="5" spans="1:18" ht="215.1" customHeight="1">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" t="s" s="22">
-        <v>87</v>
-      </c>
-      <c r="D5" t="s" s="14">
+      <c r="C5" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="23">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s" s="14">
+      <c r="E5" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s" s="14">
+      <c r="G5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s" s="13">
-        <v>95</v>
-      </c>
-      <c r="I5" t="s" s="14">
+      <c r="H5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J5" t="s" s="23">
+      <c r="J5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K5" t="s" s="24">
+      <c r="K5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L5" t="s" s="27">
+      <c r="L5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M5" t="s" s="24">
-        <v>43</v>
-      </c>
-      <c r="N5" t="s" s="12">
-        <v>46</v>
-      </c>
-      <c r="O5" t="s" s="14">
-        <v>50</v>
-      </c>
-      <c r="P5" t="s" s="22">
-        <v>106</v>
+      <c r="M5" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" ht="117.0" customHeight="true">
-      <c r="A6" t="s" s="20">
+    <row r="6" spans="1:18" ht="117" customHeight="1">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" t="s" s="22">
-        <v>88</v>
-      </c>
-      <c r="D6" t="s" s="14">
+      <c r="C6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s" s="23">
+      <c r="E6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s" s="14">
+      <c r="F6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s" s="14">
+      <c r="G6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s" s="13">
-        <v>95</v>
-      </c>
-      <c r="I6" t="s" s="14">
+      <c r="H6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J6" t="s" s="25">
+      <c r="J6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K6" t="s" s="26">
+      <c r="K6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L6" t="s" s="27">
+      <c r="L6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M6" t="s" s="24">
-        <v>42</v>
-      </c>
-      <c r="N6" t="s" s="12">
-        <v>46</v>
-      </c>
-      <c r="O6" t="s" s="14">
-        <v>49</v>
-      </c>
-      <c r="P6" t="s" s="22">
-        <v>107</v>
+      <c r="M6" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" ht="176.0" customHeight="true">
-      <c r="A7" t="s" s="20">
+    <row r="7" spans="1:18" ht="176.1" customHeight="1">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" t="s" s="22">
-        <v>88</v>
-      </c>
-      <c r="D7" t="s" s="14">
+      <c r="C7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s" s="23">
+      <c r="E7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s" s="14">
+      <c r="F7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s" s="14">
+      <c r="G7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H7" t="s" s="13">
-        <v>95</v>
-      </c>
-      <c r="I7" t="s" s="14">
+      <c r="H7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s" s="25">
+      <c r="J7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K7" t="s" s="26">
+      <c r="K7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L7" t="s" s="27">
+      <c r="L7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M7" t="s" s="24">
-        <v>42</v>
-      </c>
-      <c r="N7" t="s" s="12">
-        <v>46</v>
-      </c>
-      <c r="O7" t="s" s="14">
-        <v>49</v>
-      </c>
-      <c r="P7" t="s" s="22">
-        <v>108</v>
+      <c r="M7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" ht="117.0" customHeight="true">
-      <c r="A8" t="s" s="20">
+    <row r="8" spans="1:18" ht="117" customHeight="1">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" t="s" s="22">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s" s="14">
+      <c r="C8" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s" s="23">
+      <c r="E8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s" s="14">
+      <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G8" t="s" s="24">
+      <c r="G8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H8" t="s" s="12">
+      <c r="H8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I8" t="s" s="14">
+      <c r="I8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J8" t="s" s="23">
+      <c r="J8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K8" t="s" s="24">
+      <c r="K8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L8" t="s" s="23">
+      <c r="L8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s" s="24">
-        <v>99</v>
+      <c r="M8" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="N8" s="23"/>
-      <c r="O8" t="s" s="14">
-        <v>51</v>
-      </c>
-      <c r="P8" t="s" s="22">
-        <v>109</v>
+      <c r="O8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" ht="136.0" customHeight="true">
-      <c r="A9" t="s" s="4">
+    <row r="9" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" t="s" s="22">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s" s="14">
+      <c r="C9" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s" s="23">
+      <c r="E9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s" s="14">
+      <c r="F9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s" s="24">
+      <c r="G9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H9" t="s" s="12">
+      <c r="H9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I9" t="s" s="14">
+      <c r="I9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J9" t="s" s="23">
+      <c r="J9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K9" t="s" s="24">
+      <c r="K9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L9" t="s" s="27">
+      <c r="L9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M9" t="s" s="24">
-        <v>99</v>
+      <c r="M9" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="N9" s="23"/>
-      <c r="O9" t="s" s="14">
-        <v>51</v>
-      </c>
-      <c r="P9" t="s" s="22">
-        <v>110</v>
+      <c r="O9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:18">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10803,7 +11405,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -10823,7 +11425,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:18">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -10843,7 +11445,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:18">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -10863,7 +11465,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:18">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -10883,7 +11485,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:18">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -10903,7 +11505,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:18">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -10923,7 +11525,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:18">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10943,7 +11545,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:18">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10963,7 +11565,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:18">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -10983,7 +11585,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:18">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -11003,7 +11605,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:18">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -11023,7 +11625,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:18">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -11043,7 +11645,7 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:18">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -11063,7 +11665,7 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:18">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -11083,7 +11685,7 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:18">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -11103,7 +11705,7 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:18">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -11123,7 +11725,7 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:18">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -11143,7 +11745,7 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:18">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -11163,7 +11765,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:18">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -11183,7 +11785,7 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:18">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -11203,7 +11805,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:18">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -11223,7 +11825,7 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:18">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -11243,7 +11845,7 @@
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:18">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -11263,7 +11865,7 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:18">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -11283,7 +11885,7 @@
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:18">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -11303,7 +11905,7 @@
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:18">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11323,7 +11925,7 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:18">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -11343,7 +11945,7 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:18">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -11363,7 +11965,7 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:18">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -11383,7 +11985,7 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:18">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -11403,7 +12005,7 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:18">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -11423,7 +12025,7 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:18">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -11443,7 +12045,7 @@
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:18">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -11463,7 +12065,7 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:18">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -11483,7 +12085,7 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:18">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -11503,7 +12105,7 @@
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:18">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -11523,7 +12125,7 @@
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:18">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -11543,7 +12145,7 @@
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:18">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -11563,7 +12165,7 @@
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:18">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -11583,7 +12185,7 @@
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:18">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -11603,7 +12205,7 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:18">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -11623,7 +12225,7 @@
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:18">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -11643,7 +12245,7 @@
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:18">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -11663,7 +12265,7 @@
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:18">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -11683,7 +12285,7 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:18">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -11703,7 +12305,7 @@
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:18">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -11723,7 +12325,7 @@
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:18">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -11743,7 +12345,7 @@
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:18">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -11763,7 +12365,7 @@
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:18">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -11783,7 +12385,7 @@
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:18">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -11803,7 +12405,7 @@
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:18">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -11823,7 +12425,7 @@
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:18">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -11843,7 +12445,7 @@
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:18">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -11863,7 +12465,7 @@
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:18">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -11883,7 +12485,7 @@
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:18">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -11903,7 +12505,7 @@
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:18">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -11923,7 +12525,7 @@
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:18">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -11943,7 +12545,7 @@
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:18">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -11963,7 +12565,7 @@
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:18">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -11983,7 +12585,7 @@
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:18">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -12003,7 +12605,7 @@
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:18">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -12023,7 +12625,7 @@
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:18">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -12043,7 +12645,7 @@
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:18">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -12063,7 +12665,7 @@
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:18">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -12083,7 +12685,7 @@
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:18">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -12103,7 +12705,7 @@
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:18">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -12123,7 +12725,7 @@
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:18">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -12143,7 +12745,7 @@
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:18">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -12163,7 +12765,7 @@
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:18">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -12183,7 +12785,7 @@
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:18">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -12203,7 +12805,7 @@
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:18">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -12223,7 +12825,7 @@
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:18">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -12243,7 +12845,7 @@
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:18">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -12263,7 +12865,7 @@
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:18">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12283,7 +12885,7 @@
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:18">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -12303,7 +12905,7 @@
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:18">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -12323,7 +12925,7 @@
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:18">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -12343,7 +12945,7 @@
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:18">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -12363,7 +12965,7 @@
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:18">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -12383,7 +12985,7 @@
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:18">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -12403,7 +13005,7 @@
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:18">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -12423,7 +13025,7 @@
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:18">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -12443,7 +13045,7 @@
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:18">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -12463,7 +13065,7 @@
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:18">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -12483,7 +13085,7 @@
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:18">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -12503,7 +13105,7 @@
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:18">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -12523,7 +13125,7 @@
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:18">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -12543,7 +13145,7 @@
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:18">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -12563,7 +13165,7 @@
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:18">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -12583,7 +13185,7 @@
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:18">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -12603,7 +13205,7 @@
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:18">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -12623,7 +13225,7 @@
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:18">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -12643,7 +13245,7 @@
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:18">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -12663,7 +13265,7 @@
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:18">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -12683,7 +13285,7 @@
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:18">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -12703,7 +13305,7 @@
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:18">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -12723,7 +13325,7 @@
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:18">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -12743,7 +13345,7 @@
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:18">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -12763,7 +13365,7 @@
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:18">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -12783,7 +13385,7 @@
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:18">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -12803,7 +13405,7 @@
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:18">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -12823,7 +13425,7 @@
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:18">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -12843,7 +13445,7 @@
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:18">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -12863,7 +13465,7 @@
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:18">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -12883,7 +13485,7 @@
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:18">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -12903,7 +13505,7 @@
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:18">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -12923,7 +13525,7 @@
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:18">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -12943,7 +13545,7 @@
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:18">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -12963,7 +13565,7 @@
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:18">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -12983,7 +13585,7 @@
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:18">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -13003,7 +13605,7 @@
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:18">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -13023,7 +13625,7 @@
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:18">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -13043,7 +13645,7 @@
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:18">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -13063,7 +13665,7 @@
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:18">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -13083,7 +13685,7 @@
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:18">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -13103,7 +13705,7 @@
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:18">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -13123,7 +13725,7 @@
       <c r="Q126" s="5"/>
       <c r="R126" s="5"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:18">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -13143,7 +13745,7 @@
       <c r="Q127" s="5"/>
       <c r="R127" s="5"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:18">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -13163,7 +13765,7 @@
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:18">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -13183,7 +13785,7 @@
       <c r="Q129" s="5"/>
       <c r="R129" s="5"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:18">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -13203,7 +13805,7 @@
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:18">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -13223,7 +13825,7 @@
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:18">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -13243,7 +13845,7 @@
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:18">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -13263,7 +13865,7 @@
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:18">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -13283,7 +13885,7 @@
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:18">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -13303,7 +13905,7 @@
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:18">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -13323,7 +13925,7 @@
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:18">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -13343,7 +13945,7 @@
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:18">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -13363,7 +13965,7 @@
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:18">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -13383,7 +13985,7 @@
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:18">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -13403,7 +14005,7 @@
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:18">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -13423,7 +14025,7 @@
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:18">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -13443,7 +14045,7 @@
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:18">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -13463,7 +14065,7 @@
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:18">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -13483,7 +14085,7 @@
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:18">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -13503,7 +14105,7 @@
       <c r="Q145" s="5"/>
       <c r="R145" s="5"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:18">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -13523,7 +14125,7 @@
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:18">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -13543,7 +14145,7 @@
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:18">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -13563,7 +14165,7 @@
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:18">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -13583,7 +14185,7 @@
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:18">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -13603,7 +14205,7 @@
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:18">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -13623,7 +14225,7 @@
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:18">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -13643,7 +14245,7 @@
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:18">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -13663,7 +14265,7 @@
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:18">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -13683,7 +14285,7 @@
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:18">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -13703,7 +14305,7 @@
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:18">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -13723,7 +14325,7 @@
       <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:18">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -13743,7 +14345,7 @@
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:18">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -13763,7 +14365,7 @@
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:18">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -13783,7 +14385,7 @@
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:18">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -13803,7 +14405,7 @@
       <c r="Q160" s="5"/>
       <c r="R160" s="5"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:18">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -13823,7 +14425,7 @@
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:18">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -13843,7 +14445,7 @@
       <c r="Q162" s="5"/>
       <c r="R162" s="5"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:18">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -13863,7 +14465,7 @@
       <c r="Q163" s="5"/>
       <c r="R163" s="5"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:18">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -13883,7 +14485,7 @@
       <c r="Q164" s="5"/>
       <c r="R164" s="5"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:18">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -13903,7 +14505,7 @@
       <c r="Q165" s="5"/>
       <c r="R165" s="5"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:18">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -13923,7 +14525,7 @@
       <c r="Q166" s="5"/>
       <c r="R166" s="5"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:18">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -13943,7 +14545,7 @@
       <c r="Q167" s="5"/>
       <c r="R167" s="5"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:18">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -13963,7 +14565,7 @@
       <c r="Q168" s="5"/>
       <c r="R168" s="5"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:18">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -13983,7 +14585,7 @@
       <c r="Q169" s="5"/>
       <c r="R169" s="5"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:18">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -14003,7 +14605,7 @@
       <c r="Q170" s="5"/>
       <c r="R170" s="5"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:18">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -14023,7 +14625,7 @@
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:18">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -14043,7 +14645,7 @@
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:18">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -14063,7 +14665,7 @@
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:18">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -14083,7 +14685,7 @@
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:18">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -14103,7 +14705,7 @@
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:18">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -14123,7 +14725,7 @@
       <c r="Q176" s="5"/>
       <c r="R176" s="5"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:18">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -14143,7 +14745,7 @@
       <c r="Q177" s="5"/>
       <c r="R177" s="5"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:18">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -14163,7 +14765,7 @@
       <c r="Q178" s="5"/>
       <c r="R178" s="5"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:18">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -14183,7 +14785,7 @@
       <c r="Q179" s="5"/>
       <c r="R179" s="5"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:18">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -14203,7 +14805,7 @@
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:18">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -14223,7 +14825,7 @@
       <c r="Q181" s="5"/>
       <c r="R181" s="5"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:18">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -14243,7 +14845,7 @@
       <c r="Q182" s="5"/>
       <c r="R182" s="5"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:18">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -14263,7 +14865,7 @@
       <c r="Q183" s="5"/>
       <c r="R183" s="5"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:18">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -14283,7 +14885,7 @@
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:18">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -14303,7 +14905,7 @@
       <c r="Q185" s="5"/>
       <c r="R185" s="5"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:18">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -14323,7 +14925,7 @@
       <c r="Q186" s="5"/>
       <c r="R186" s="5"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:18">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -14343,7 +14945,7 @@
       <c r="Q187" s="5"/>
       <c r="R187" s="5"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:18">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -14363,7 +14965,7 @@
       <c r="Q188" s="5"/>
       <c r="R188" s="5"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:18">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -14383,7 +14985,7 @@
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:18">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -14403,7 +15005,7 @@
       <c r="Q190" s="5"/>
       <c r="R190" s="5"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:18">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -14423,7 +15025,7 @@
       <c r="Q191" s="5"/>
       <c r="R191" s="5"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:18">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -14443,7 +15045,7 @@
       <c r="Q192" s="5"/>
       <c r="R192" s="5"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:18">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -14463,7 +15065,7 @@
       <c r="Q193" s="5"/>
       <c r="R193" s="5"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:18">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -14483,7 +15085,7 @@
       <c r="Q194" s="5"/>
       <c r="R194" s="5"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:18">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -14503,7 +15105,7 @@
       <c r="Q195" s="5"/>
       <c r="R195" s="5"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:18">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -14523,7 +15125,7 @@
       <c r="Q196" s="5"/>
       <c r="R196" s="5"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:18">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -14543,7 +15145,7 @@
       <c r="Q197" s="5"/>
       <c r="R197" s="5"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:18">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -14563,7 +15165,7 @@
       <c r="Q198" s="5"/>
       <c r="R198" s="5"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:18">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -14583,7 +15185,7 @@
       <c r="Q199" s="5"/>
       <c r="R199" s="5"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:18">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -14604,7 +15206,8 @@
       <c r="R200" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Core/M5 Core Detailed Comparison.xlsx
+++ b/Core/M5 Core Detailed Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\github_code\M5-Schematic\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEF5341-E430-48F6-825B-D75677276639}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796FF776-73A1-4DDC-A8D0-2EFA328033A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="121">
   <si>
     <t>Core</t>
   </si>
@@ -107,10 +107,6 @@
   </si>
   <si>
     <t>4MB</t>
-  </si>
-  <si>
-    <t>16MB Flash + 
-4MB PSRAM</t>
   </si>
   <si>
     <t>16MB</t>
@@ -307,9 +303,6 @@
 · 编程板可穿戴</t>
   </si>
   <si>
-    <t>Flash闪存</t>
-  </si>
-  <si>
     <t>输入电压</t>
   </si>
   <si>
@@ -430,9 +423,6 @@
 · ウェアラブル対応</t>
   </si>
   <si>
-    <t>Flash容量</t>
-  </si>
-  <si>
     <t>入力電圧</t>
   </si>
   <si>
@@ -534,6 +524,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">MB
 </t>
@@ -564,6 +555,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>mAh @ 3.7V</t>
     </r>
@@ -585,6 +577,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>0mAh @ 3.7V</t>
     </r>
@@ -610,6 +603,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">MB
 </t>
@@ -657,6 +651,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>0mAh @ 3.7V</t>
     </r>
@@ -678,6 +673,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>mAh @ 3.7V</t>
     </r>
@@ -691,6 +687,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">MB
 </t>
@@ -722,12 +719,54 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>RAM</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>520KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>520KB
++
+4MB PSRAM</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>16MB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">520KB
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AM</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flash</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -739,25 +778,30 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -776,6 +820,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -825,7 +875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,6 +964,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2301,10 +2357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R200"/>
+  <dimension ref="A1:S200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2313,22 +2369,22 @@
     <col min="2" max="2" width="14"/>
     <col min="3" max="3" width="22.875"/>
     <col min="4" max="4" width="16.75"/>
-    <col min="5" max="5" width="10.125"/>
-    <col min="6" max="6" width="6"/>
-    <col min="7" max="7" width="11.125"/>
-    <col min="8" max="8" width="13.125"/>
-    <col min="9" max="9" width="10.375"/>
-    <col min="10" max="10" width="12.75"/>
-    <col min="11" max="11" width="10.125"/>
-    <col min="12" max="12" width="9.75"/>
-    <col min="13" max="13" width="12"/>
-    <col min="14" max="14" width="9.875"/>
-    <col min="15" max="15" width="8.75"/>
-    <col min="16" max="16" width="20.75"/>
-    <col min="17" max="18" width="8.75"/>
+    <col min="6" max="6" width="10.125"/>
+    <col min="7" max="7" width="6"/>
+    <col min="8" max="8" width="11.125"/>
+    <col min="9" max="9" width="13.125"/>
+    <col min="10" max="10" width="10.375"/>
+    <col min="11" max="11" width="12.75"/>
+    <col min="12" max="12" width="10.125"/>
+    <col min="13" max="13" width="9.75"/>
+    <col min="14" max="14" width="12"/>
+    <col min="15" max="15" width="9.875"/>
+    <col min="16" max="16" width="8.75"/>
+    <col min="17" max="17" width="20.75"/>
+    <col min="18" max="19" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="78" customHeight="1">
+    <row r="1" spans="1:19" ht="78" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2341,46 +2397,49 @@
       <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="R1" s="5"/>
-    </row>
-    <row r="2" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" spans="1:19" ht="135.94999999999999" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2391,46 +2450,49 @@
       <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="1:19" ht="135.94999999999999" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2441,46 +2503,49 @@
       <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>23</v>
+      <c r="E3" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" ht="156" customHeight="1">
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" ht="156" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,46 +2556,49 @@
       <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>23</v>
+      <c r="E4" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" ht="234" customHeight="1">
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" ht="234" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2541,46 +2609,49 @@
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>23</v>
+      <c r="E5" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q5" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" ht="156" customHeight="1">
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" ht="156" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2591,46 +2662,49 @@
       <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
+      <c r="E6" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" ht="234" customHeight="1">
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" ht="234" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2641,46 +2715,49 @@
       <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>23</v>
+      <c r="E7" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" ht="135.94999999999999" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2691,44 +2768,47 @@
       <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="5"/>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="9"/>
+      <c r="P8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" ht="156" customHeight="1">
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" ht="156" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -2739,44 +2819,47 @@
       <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q9" s="5"/>
+      <c r="G9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2795,8 +2878,9 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2815,8 +2899,9 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2835,8 +2920,9 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2855,8 +2941,9 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2875,8 +2962,9 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2895,8 +2983,9 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2915,8 +3004,9 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2935,8 +3025,9 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2955,8 +3046,9 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2975,8 +3067,9 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2995,8 +3088,9 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3015,8 +3109,9 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3035,8 +3130,9 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3055,8 +3151,9 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3075,8 +3172,9 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3095,8 +3193,9 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3115,8 +3214,9 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3135,8 +3235,9 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3155,8 +3256,9 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3175,8 +3277,9 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="5"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3195,8 +3298,9 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="5"/>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -3215,8 +3319,9 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="5"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3235,8 +3340,9 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="5"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3255,8 +3361,9 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="5"/>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -3275,8 +3382,9 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="5"/>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3295,8 +3403,9 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="5"/>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3315,8 +3424,9 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="5"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3335,8 +3445,9 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="5"/>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3355,8 +3466,9 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="5"/>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3375,8 +3487,9 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" s="5"/>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3395,8 +3508,9 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" s="5"/>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3415,8 +3529,9 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" s="5"/>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3435,8 +3550,9 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" s="5"/>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3455,8 +3571,9 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" s="5"/>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3475,8 +3592,9 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" s="5"/>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3495,8 +3613,9 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45" s="5"/>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3515,8 +3634,9 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" s="5"/>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3535,8 +3655,9 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47" s="5"/>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -3555,8 +3676,9 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" s="5"/>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -3575,8 +3697,9 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" s="5"/>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -3595,8 +3718,9 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50" s="5"/>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -3615,8 +3739,9 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51" s="5"/>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -3635,8 +3760,9 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52" s="5"/>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -3655,8 +3781,9 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53" s="5"/>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -3675,8 +3802,9 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54" s="5"/>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -3695,8 +3823,9 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55" s="5"/>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -3715,8 +3844,9 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="S56" s="5"/>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -3735,8 +3865,9 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="S57" s="5"/>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -3755,8 +3886,9 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="S58" s="5"/>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -3775,8 +3907,9 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="S59" s="5"/>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -3795,8 +3928,9 @@
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="S60" s="5"/>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -3815,8 +3949,9 @@
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="S61" s="5"/>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -3835,8 +3970,9 @@
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="S62" s="5"/>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -3855,8 +3991,9 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="S63" s="5"/>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3875,8 +4012,9 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="S64" s="5"/>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3895,8 +4033,9 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="S65" s="5"/>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3915,8 +4054,9 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="S66" s="5"/>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3935,8 +4075,9 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="S67" s="5"/>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3955,8 +4096,9 @@
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="S68" s="5"/>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3975,8 +4117,9 @@
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="S69" s="5"/>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3995,8 +4138,9 @@
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="S70" s="5"/>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -4015,8 +4159,9 @@
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="S71" s="5"/>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -4035,8 +4180,9 @@
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="S72" s="5"/>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -4055,8 +4201,9 @@
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="S73" s="5"/>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -4075,8 +4222,9 @@
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="S74" s="5"/>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -4095,8 +4243,9 @@
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="S75" s="5"/>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -4115,8 +4264,9 @@
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="S76" s="5"/>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -4135,8 +4285,9 @@
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="S77" s="5"/>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -4155,8 +4306,9 @@
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="S78" s="5"/>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -4175,8 +4327,9 @@
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="S79" s="5"/>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -4195,8 +4348,9 @@
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="S80" s="5"/>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -4215,8 +4369,9 @@
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="S81" s="5"/>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -4235,8 +4390,9 @@
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="S82" s="5"/>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -4255,8 +4411,9 @@
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="S83" s="5"/>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -4275,8 +4432,9 @@
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="S84" s="5"/>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -4295,8 +4453,9 @@
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="S85" s="5"/>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -4315,8 +4474,9 @@
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="S86" s="5"/>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -4335,8 +4495,9 @@
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="S87" s="5"/>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -4355,8 +4516,9 @@
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="S88" s="5"/>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -4375,8 +4537,9 @@
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="S89" s="5"/>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -4395,8 +4558,9 @@
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="S90" s="5"/>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -4415,8 +4579,9 @@
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="S91" s="5"/>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -4435,8 +4600,9 @@
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="S92" s="5"/>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -4455,8 +4621,9 @@
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="S93" s="5"/>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -4475,8 +4642,9 @@
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="S94" s="5"/>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -4495,8 +4663,9 @@
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="S95" s="5"/>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -4515,8 +4684,9 @@
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="S96" s="5"/>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -4535,8 +4705,9 @@
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="S97" s="5"/>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -4555,8 +4726,9 @@
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="S98" s="5"/>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4575,8 +4747,9 @@
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="S99" s="5"/>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4595,8 +4768,9 @@
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="S100" s="5"/>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4615,8 +4789,9 @@
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
-    </row>
-    <row r="102" spans="1:18">
+      <c r="S101" s="5"/>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -4635,8 +4810,9 @@
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
-    </row>
-    <row r="103" spans="1:18">
+      <c r="S102" s="5"/>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -4655,8 +4831,9 @@
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
-    </row>
-    <row r="104" spans="1:18">
+      <c r="S103" s="5"/>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -4675,8 +4852,9 @@
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
-    </row>
-    <row r="105" spans="1:18">
+      <c r="S104" s="5"/>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -4695,8 +4873,9 @@
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="S105" s="5"/>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -4715,8 +4894,9 @@
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="S106" s="5"/>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -4735,8 +4915,9 @@
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
-    </row>
-    <row r="108" spans="1:18">
+      <c r="S107" s="5"/>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -4755,8 +4936,9 @@
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="S108" s="5"/>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -4775,8 +4957,9 @@
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="S109" s="5"/>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -4795,8 +4978,9 @@
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="S110" s="5"/>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -4815,8 +4999,9 @@
       <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="S111" s="5"/>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -4835,8 +5020,9 @@
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
-    </row>
-    <row r="113" spans="1:18">
+      <c r="S112" s="5"/>
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -4855,8 +5041,9 @@
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
-    </row>
-    <row r="114" spans="1:18">
+      <c r="S113" s="5"/>
+    </row>
+    <row r="114" spans="1:19">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -4875,8 +5062,9 @@
       <c r="P114" s="5"/>
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
-    </row>
-    <row r="115" spans="1:18">
+      <c r="S114" s="5"/>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -4895,8 +5083,9 @@
       <c r="P115" s="5"/>
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
-    </row>
-    <row r="116" spans="1:18">
+      <c r="S115" s="5"/>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -4915,8 +5104,9 @@
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
-    </row>
-    <row r="117" spans="1:18">
+      <c r="S116" s="5"/>
+    </row>
+    <row r="117" spans="1:19">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -4935,8 +5125,9 @@
       <c r="P117" s="5"/>
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
-    </row>
-    <row r="118" spans="1:18">
+      <c r="S117" s="5"/>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4955,8 +5146,9 @@
       <c r="P118" s="5"/>
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
-    </row>
-    <row r="119" spans="1:18">
+      <c r="S118" s="5"/>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4975,8 +5167,9 @@
       <c r="P119" s="5"/>
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="S119" s="5"/>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4995,8 +5188,9 @@
       <c r="P120" s="5"/>
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
-    </row>
-    <row r="121" spans="1:18">
+      <c r="S120" s="5"/>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -5015,8 +5209,9 @@
       <c r="P121" s="5"/>
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
-    </row>
-    <row r="122" spans="1:18">
+      <c r="S121" s="5"/>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -5035,8 +5230,9 @@
       <c r="P122" s="5"/>
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
-    </row>
-    <row r="123" spans="1:18">
+      <c r="S122" s="5"/>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -5055,8 +5251,9 @@
       <c r="P123" s="5"/>
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
-    </row>
-    <row r="124" spans="1:18">
+      <c r="S123" s="5"/>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -5075,8 +5272,9 @@
       <c r="P124" s="5"/>
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="S124" s="5"/>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -5095,8 +5293,9 @@
       <c r="P125" s="5"/>
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
-    </row>
-    <row r="126" spans="1:18">
+      <c r="S125" s="5"/>
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -5115,8 +5314,9 @@
       <c r="P126" s="5"/>
       <c r="Q126" s="5"/>
       <c r="R126" s="5"/>
-    </row>
-    <row r="127" spans="1:18">
+      <c r="S126" s="5"/>
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -5135,8 +5335,9 @@
       <c r="P127" s="5"/>
       <c r="Q127" s="5"/>
       <c r="R127" s="5"/>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="S127" s="5"/>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -5155,8 +5356,9 @@
       <c r="P128" s="5"/>
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
-    </row>
-    <row r="129" spans="1:18">
+      <c r="S128" s="5"/>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -5175,8 +5377,9 @@
       <c r="P129" s="5"/>
       <c r="Q129" s="5"/>
       <c r="R129" s="5"/>
-    </row>
-    <row r="130" spans="1:18">
+      <c r="S129" s="5"/>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -5195,8 +5398,9 @@
       <c r="P130" s="5"/>
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="S130" s="5"/>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -5215,8 +5419,9 @@
       <c r="P131" s="5"/>
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
-    </row>
-    <row r="132" spans="1:18">
+      <c r="S131" s="5"/>
+    </row>
+    <row r="132" spans="1:19">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -5235,8 +5440,9 @@
       <c r="P132" s="5"/>
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
-    </row>
-    <row r="133" spans="1:18">
+      <c r="S132" s="5"/>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -5255,8 +5461,9 @@
       <c r="P133" s="5"/>
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
-    </row>
-    <row r="134" spans="1:18">
+      <c r="S133" s="5"/>
+    </row>
+    <row r="134" spans="1:19">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -5275,8 +5482,9 @@
       <c r="P134" s="5"/>
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
-    </row>
-    <row r="135" spans="1:18">
+      <c r="S134" s="5"/>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -5295,8 +5503,9 @@
       <c r="P135" s="5"/>
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
-    </row>
-    <row r="136" spans="1:18">
+      <c r="S135" s="5"/>
+    </row>
+    <row r="136" spans="1:19">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -5315,8 +5524,9 @@
       <c r="P136" s="5"/>
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
-    </row>
-    <row r="137" spans="1:18">
+      <c r="S136" s="5"/>
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -5335,8 +5545,9 @@
       <c r="P137" s="5"/>
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
-    </row>
-    <row r="138" spans="1:18">
+      <c r="S137" s="5"/>
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -5355,8 +5566,9 @@
       <c r="P138" s="5"/>
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
-    </row>
-    <row r="139" spans="1:18">
+      <c r="S138" s="5"/>
+    </row>
+    <row r="139" spans="1:19">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -5375,8 +5587,9 @@
       <c r="P139" s="5"/>
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
-    </row>
-    <row r="140" spans="1:18">
+      <c r="S139" s="5"/>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -5395,8 +5608,9 @@
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
-    </row>
-    <row r="141" spans="1:18">
+      <c r="S140" s="5"/>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -5415,8 +5629,9 @@
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
-    </row>
-    <row r="142" spans="1:18">
+      <c r="S141" s="5"/>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -5435,8 +5650,9 @@
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
-    </row>
-    <row r="143" spans="1:18">
+      <c r="S142" s="5"/>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -5455,8 +5671,9 @@
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
-    </row>
-    <row r="144" spans="1:18">
+      <c r="S143" s="5"/>
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -5475,8 +5692,9 @@
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
-    </row>
-    <row r="145" spans="1:18">
+      <c r="S144" s="5"/>
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -5495,8 +5713,9 @@
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
       <c r="R145" s="5"/>
-    </row>
-    <row r="146" spans="1:18">
+      <c r="S145" s="5"/>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -5515,8 +5734,9 @@
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
-    </row>
-    <row r="147" spans="1:18">
+      <c r="S146" s="5"/>
+    </row>
+    <row r="147" spans="1:19">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -5535,8 +5755,9 @@
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="S147" s="5"/>
+    </row>
+    <row r="148" spans="1:19">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -5555,8 +5776,9 @@
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
-    </row>
-    <row r="149" spans="1:18">
+      <c r="S148" s="5"/>
+    </row>
+    <row r="149" spans="1:19">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -5575,8 +5797,9 @@
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
-    </row>
-    <row r="150" spans="1:18">
+      <c r="S149" s="5"/>
+    </row>
+    <row r="150" spans="1:19">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -5595,8 +5818,9 @@
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
-    </row>
-    <row r="151" spans="1:18">
+      <c r="S150" s="5"/>
+    </row>
+    <row r="151" spans="1:19">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -5615,8 +5839,9 @@
       <c r="P151" s="5"/>
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
-    </row>
-    <row r="152" spans="1:18">
+      <c r="S151" s="5"/>
+    </row>
+    <row r="152" spans="1:19">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -5635,8 +5860,9 @@
       <c r="P152" s="5"/>
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
-    </row>
-    <row r="153" spans="1:18">
+      <c r="S152" s="5"/>
+    </row>
+    <row r="153" spans="1:19">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -5655,8 +5881,9 @@
       <c r="P153" s="5"/>
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
-    </row>
-    <row r="154" spans="1:18">
+      <c r="S153" s="5"/>
+    </row>
+    <row r="154" spans="1:19">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -5675,8 +5902,9 @@
       <c r="P154" s="5"/>
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
-    </row>
-    <row r="155" spans="1:18">
+      <c r="S154" s="5"/>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -5695,8 +5923,9 @@
       <c r="P155" s="5"/>
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
-    </row>
-    <row r="156" spans="1:18">
+      <c r="S155" s="5"/>
+    </row>
+    <row r="156" spans="1:19">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -5715,8 +5944,9 @@
       <c r="P156" s="5"/>
       <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
-    </row>
-    <row r="157" spans="1:18">
+      <c r="S156" s="5"/>
+    </row>
+    <row r="157" spans="1:19">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -5735,8 +5965,9 @@
       <c r="P157" s="5"/>
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
-    </row>
-    <row r="158" spans="1:18">
+      <c r="S157" s="5"/>
+    </row>
+    <row r="158" spans="1:19">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -5755,8 +5986,9 @@
       <c r="P158" s="5"/>
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
-    </row>
-    <row r="159" spans="1:18">
+      <c r="S158" s="5"/>
+    </row>
+    <row r="159" spans="1:19">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -5775,8 +6007,9 @@
       <c r="P159" s="5"/>
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
-    </row>
-    <row r="160" spans="1:18">
+      <c r="S159" s="5"/>
+    </row>
+    <row r="160" spans="1:19">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -5795,8 +6028,9 @@
       <c r="P160" s="5"/>
       <c r="Q160" s="5"/>
       <c r="R160" s="5"/>
-    </row>
-    <row r="161" spans="1:18">
+      <c r="S160" s="5"/>
+    </row>
+    <row r="161" spans="1:19">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -5815,8 +6049,9 @@
       <c r="P161" s="5"/>
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
-    </row>
-    <row r="162" spans="1:18">
+      <c r="S161" s="5"/>
+    </row>
+    <row r="162" spans="1:19">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -5835,8 +6070,9 @@
       <c r="P162" s="5"/>
       <c r="Q162" s="5"/>
       <c r="R162" s="5"/>
-    </row>
-    <row r="163" spans="1:18">
+      <c r="S162" s="5"/>
+    </row>
+    <row r="163" spans="1:19">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -5855,8 +6091,9 @@
       <c r="P163" s="5"/>
       <c r="Q163" s="5"/>
       <c r="R163" s="5"/>
-    </row>
-    <row r="164" spans="1:18">
+      <c r="S163" s="5"/>
+    </row>
+    <row r="164" spans="1:19">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -5875,8 +6112,9 @@
       <c r="P164" s="5"/>
       <c r="Q164" s="5"/>
       <c r="R164" s="5"/>
-    </row>
-    <row r="165" spans="1:18">
+      <c r="S164" s="5"/>
+    </row>
+    <row r="165" spans="1:19">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -5895,8 +6133,9 @@
       <c r="P165" s="5"/>
       <c r="Q165" s="5"/>
       <c r="R165" s="5"/>
-    </row>
-    <row r="166" spans="1:18">
+      <c r="S165" s="5"/>
+    </row>
+    <row r="166" spans="1:19">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -5915,8 +6154,9 @@
       <c r="P166" s="5"/>
       <c r="Q166" s="5"/>
       <c r="R166" s="5"/>
-    </row>
-    <row r="167" spans="1:18">
+      <c r="S166" s="5"/>
+    </row>
+    <row r="167" spans="1:19">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -5935,8 +6175,9 @@
       <c r="P167" s="5"/>
       <c r="Q167" s="5"/>
       <c r="R167" s="5"/>
-    </row>
-    <row r="168" spans="1:18">
+      <c r="S167" s="5"/>
+    </row>
+    <row r="168" spans="1:19">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -5955,8 +6196,9 @@
       <c r="P168" s="5"/>
       <c r="Q168" s="5"/>
       <c r="R168" s="5"/>
-    </row>
-    <row r="169" spans="1:18">
+      <c r="S168" s="5"/>
+    </row>
+    <row r="169" spans="1:19">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -5975,8 +6217,9 @@
       <c r="P169" s="5"/>
       <c r="Q169" s="5"/>
       <c r="R169" s="5"/>
-    </row>
-    <row r="170" spans="1:18">
+      <c r="S169" s="5"/>
+    </row>
+    <row r="170" spans="1:19">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -5995,8 +6238,9 @@
       <c r="P170" s="5"/>
       <c r="Q170" s="5"/>
       <c r="R170" s="5"/>
-    </row>
-    <row r="171" spans="1:18">
+      <c r="S170" s="5"/>
+    </row>
+    <row r="171" spans="1:19">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -6015,8 +6259,9 @@
       <c r="P171" s="5"/>
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
-    </row>
-    <row r="172" spans="1:18">
+      <c r="S171" s="5"/>
+    </row>
+    <row r="172" spans="1:19">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -6035,8 +6280,9 @@
       <c r="P172" s="5"/>
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
-    </row>
-    <row r="173" spans="1:18">
+      <c r="S172" s="5"/>
+    </row>
+    <row r="173" spans="1:19">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -6055,8 +6301,9 @@
       <c r="P173" s="5"/>
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
-    </row>
-    <row r="174" spans="1:18">
+      <c r="S173" s="5"/>
+    </row>
+    <row r="174" spans="1:19">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -6075,8 +6322,9 @@
       <c r="P174" s="5"/>
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
-    </row>
-    <row r="175" spans="1:18">
+      <c r="S174" s="5"/>
+    </row>
+    <row r="175" spans="1:19">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -6095,8 +6343,9 @@
       <c r="P175" s="5"/>
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
-    </row>
-    <row r="176" spans="1:18">
+      <c r="S175" s="5"/>
+    </row>
+    <row r="176" spans="1:19">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -6115,8 +6364,9 @@
       <c r="P176" s="5"/>
       <c r="Q176" s="5"/>
       <c r="R176" s="5"/>
-    </row>
-    <row r="177" spans="1:18">
+      <c r="S176" s="5"/>
+    </row>
+    <row r="177" spans="1:19">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -6135,8 +6385,9 @@
       <c r="P177" s="5"/>
       <c r="Q177" s="5"/>
       <c r="R177" s="5"/>
-    </row>
-    <row r="178" spans="1:18">
+      <c r="S177" s="5"/>
+    </row>
+    <row r="178" spans="1:19">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -6155,8 +6406,9 @@
       <c r="P178" s="5"/>
       <c r="Q178" s="5"/>
       <c r="R178" s="5"/>
-    </row>
-    <row r="179" spans="1:18">
+      <c r="S178" s="5"/>
+    </row>
+    <row r="179" spans="1:19">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -6175,8 +6427,9 @@
       <c r="P179" s="5"/>
       <c r="Q179" s="5"/>
       <c r="R179" s="5"/>
-    </row>
-    <row r="180" spans="1:18">
+      <c r="S179" s="5"/>
+    </row>
+    <row r="180" spans="1:19">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -6195,8 +6448,9 @@
       <c r="P180" s="5"/>
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
-    </row>
-    <row r="181" spans="1:18">
+      <c r="S180" s="5"/>
+    </row>
+    <row r="181" spans="1:19">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -6215,8 +6469,9 @@
       <c r="P181" s="5"/>
       <c r="Q181" s="5"/>
       <c r="R181" s="5"/>
-    </row>
-    <row r="182" spans="1:18">
+      <c r="S181" s="5"/>
+    </row>
+    <row r="182" spans="1:19">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -6235,8 +6490,9 @@
       <c r="P182" s="5"/>
       <c r="Q182" s="5"/>
       <c r="R182" s="5"/>
-    </row>
-    <row r="183" spans="1:18">
+      <c r="S182" s="5"/>
+    </row>
+    <row r="183" spans="1:19">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -6255,8 +6511,9 @@
       <c r="P183" s="5"/>
       <c r="Q183" s="5"/>
       <c r="R183" s="5"/>
-    </row>
-    <row r="184" spans="1:18">
+      <c r="S183" s="5"/>
+    </row>
+    <row r="184" spans="1:19">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -6275,8 +6532,9 @@
       <c r="P184" s="5"/>
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
-    </row>
-    <row r="185" spans="1:18">
+      <c r="S184" s="5"/>
+    </row>
+    <row r="185" spans="1:19">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -6295,8 +6553,9 @@
       <c r="P185" s="5"/>
       <c r="Q185" s="5"/>
       <c r="R185" s="5"/>
-    </row>
-    <row r="186" spans="1:18">
+      <c r="S185" s="5"/>
+    </row>
+    <row r="186" spans="1:19">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -6315,8 +6574,9 @@
       <c r="P186" s="5"/>
       <c r="Q186" s="5"/>
       <c r="R186" s="5"/>
-    </row>
-    <row r="187" spans="1:18">
+      <c r="S186" s="5"/>
+    </row>
+    <row r="187" spans="1:19">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -6335,8 +6595,9 @@
       <c r="P187" s="5"/>
       <c r="Q187" s="5"/>
       <c r="R187" s="5"/>
-    </row>
-    <row r="188" spans="1:18">
+      <c r="S187" s="5"/>
+    </row>
+    <row r="188" spans="1:19">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -6355,8 +6616,9 @@
       <c r="P188" s="5"/>
       <c r="Q188" s="5"/>
       <c r="R188" s="5"/>
-    </row>
-    <row r="189" spans="1:18">
+      <c r="S188" s="5"/>
+    </row>
+    <row r="189" spans="1:19">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -6375,8 +6637,9 @@
       <c r="P189" s="5"/>
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
-    </row>
-    <row r="190" spans="1:18">
+      <c r="S189" s="5"/>
+    </row>
+    <row r="190" spans="1:19">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -6395,8 +6658,9 @@
       <c r="P190" s="5"/>
       <c r="Q190" s="5"/>
       <c r="R190" s="5"/>
-    </row>
-    <row r="191" spans="1:18">
+      <c r="S190" s="5"/>
+    </row>
+    <row r="191" spans="1:19">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -6415,8 +6679,9 @@
       <c r="P191" s="5"/>
       <c r="Q191" s="5"/>
       <c r="R191" s="5"/>
-    </row>
-    <row r="192" spans="1:18">
+      <c r="S191" s="5"/>
+    </row>
+    <row r="192" spans="1:19">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -6435,8 +6700,9 @@
       <c r="P192" s="5"/>
       <c r="Q192" s="5"/>
       <c r="R192" s="5"/>
-    </row>
-    <row r="193" spans="1:18">
+      <c r="S192" s="5"/>
+    </row>
+    <row r="193" spans="1:19">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -6455,8 +6721,9 @@
       <c r="P193" s="5"/>
       <c r="Q193" s="5"/>
       <c r="R193" s="5"/>
-    </row>
-    <row r="194" spans="1:18">
+      <c r="S193" s="5"/>
+    </row>
+    <row r="194" spans="1:19">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -6475,8 +6742,9 @@
       <c r="P194" s="5"/>
       <c r="Q194" s="5"/>
       <c r="R194" s="5"/>
-    </row>
-    <row r="195" spans="1:18">
+      <c r="S194" s="5"/>
+    </row>
+    <row r="195" spans="1:19">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -6495,8 +6763,9 @@
       <c r="P195" s="5"/>
       <c r="Q195" s="5"/>
       <c r="R195" s="5"/>
-    </row>
-    <row r="196" spans="1:18">
+      <c r="S195" s="5"/>
+    </row>
+    <row r="196" spans="1:19">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -6515,8 +6784,9 @@
       <c r="P196" s="5"/>
       <c r="Q196" s="5"/>
       <c r="R196" s="5"/>
-    </row>
-    <row r="197" spans="1:18">
+      <c r="S196" s="5"/>
+    </row>
+    <row r="197" spans="1:19">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -6535,8 +6805,9 @@
       <c r="P197" s="5"/>
       <c r="Q197" s="5"/>
       <c r="R197" s="5"/>
-    </row>
-    <row r="198" spans="1:18">
+      <c r="S197" s="5"/>
+    </row>
+    <row r="198" spans="1:19">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -6555,8 +6826,9 @@
       <c r="P198" s="5"/>
       <c r="Q198" s="5"/>
       <c r="R198" s="5"/>
-    </row>
-    <row r="199" spans="1:18">
+      <c r="S198" s="5"/>
+    </row>
+    <row r="199" spans="1:19">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -6575,8 +6847,9 @@
       <c r="P199" s="5"/>
       <c r="Q199" s="5"/>
       <c r="R199" s="5"/>
-    </row>
-    <row r="200" spans="1:18">
+      <c r="S199" s="5"/>
+    </row>
+    <row r="200" spans="1:19">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -6595,6 +6868,7 @@
       <c r="P200" s="5"/>
       <c r="Q200" s="5"/>
       <c r="R200" s="5"/>
+      <c r="S200" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -6606,10 +6880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R200"/>
+  <dimension ref="A1:S200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6618,470 +6892,497 @@
     <col min="2" max="2" width="14"/>
     <col min="3" max="3" width="22.875"/>
     <col min="4" max="4" width="16.75"/>
-    <col min="5" max="5" width="10.125"/>
-    <col min="6" max="6" width="6"/>
-    <col min="7" max="7" width="11.125"/>
-    <col min="8" max="8" width="13.125"/>
-    <col min="9" max="9" width="10.375"/>
-    <col min="10" max="10" width="12.75"/>
-    <col min="11" max="11" width="10.125"/>
-    <col min="12" max="12" width="9.75"/>
-    <col min="13" max="13" width="12"/>
-    <col min="14" max="14" width="9.875"/>
-    <col min="15" max="15" width="8.75"/>
-    <col min="16" max="16" width="20.75"/>
-    <col min="17" max="18" width="8.75"/>
+    <col min="6" max="6" width="10.125"/>
+    <col min="7" max="7" width="6"/>
+    <col min="8" max="8" width="11.125"/>
+    <col min="9" max="9" width="13.125"/>
+    <col min="10" max="10" width="10.375"/>
+    <col min="11" max="11" width="12.75"/>
+    <col min="12" max="12" width="10.125"/>
+    <col min="13" max="13" width="9.75"/>
+    <col min="14" max="14" width="12"/>
+    <col min="15" max="15" width="9.875"/>
+    <col min="16" max="16" width="8.75"/>
+    <col min="17" max="17" width="20.75"/>
+    <col min="18" max="19" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="29.1" customHeight="1">
+    <row r="1" spans="1:19" ht="29.1" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>60</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="L1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
-    </row>
-    <row r="2" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" spans="1:19" ht="135.94999999999999" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>23</v>
+      <c r="E2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>109</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>73</v>
+      </c>
       <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="1:19" ht="135.94999999999999" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>23</v>
+      <c r="E3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>110</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>74</v>
+      </c>
       <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" ht="135.94999999999999" customHeight="1">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>23</v>
+      <c r="E4" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q4" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" ht="195" customHeight="1">
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" ht="195" customHeight="1">
       <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>23</v>
+      <c r="E5" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>110</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" ht="135.94999999999999" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>23</v>
+      <c r="E6" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q6" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>77</v>
+      </c>
       <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" ht="195" customHeight="1">
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" ht="195" customHeight="1">
       <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>23</v>
+      <c r="E7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q7" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" ht="135.94999999999999" customHeight="1">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="5"/>
+      <c r="G8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="23"/>
+      <c r="P8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" ht="135.94999999999999" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="23"/>
-      <c r="O9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q9" s="5"/>
+      <c r="G9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="23"/>
+      <c r="P9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>80</v>
+      </c>
       <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7100,8 +7401,9 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -7120,8 +7422,9 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7140,8 +7443,9 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7160,8 +7464,9 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7180,8 +7485,9 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7200,8 +7506,9 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7220,8 +7527,9 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7240,8 +7548,9 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7260,8 +7569,9 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -7280,8 +7590,9 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -7300,8 +7611,9 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -7320,8 +7632,9 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -7340,8 +7653,9 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -7360,8 +7674,9 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -7380,8 +7695,9 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -7400,8 +7716,9 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -7420,8 +7737,9 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -7440,8 +7758,9 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -7460,8 +7779,9 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -7480,8 +7800,9 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="5"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -7500,8 +7821,9 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="5"/>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -7520,8 +7842,9 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="5"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -7540,8 +7863,9 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="5"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -7560,8 +7884,9 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="5"/>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -7580,8 +7905,9 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="5"/>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -7600,8 +7926,9 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="5"/>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -7620,8 +7947,9 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="5"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -7640,8 +7968,9 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="5"/>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -7660,8 +7989,9 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="5"/>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -7680,8 +8010,9 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" s="5"/>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -7700,8 +8031,9 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" s="5"/>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -7720,8 +8052,9 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" s="5"/>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -7740,8 +8073,9 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" s="5"/>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -7760,8 +8094,9 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" s="5"/>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -7780,8 +8115,9 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" s="5"/>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -7800,8 +8136,9 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45" s="5"/>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -7820,8 +8157,9 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" s="5"/>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -7840,8 +8178,9 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47" s="5"/>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -7860,8 +8199,9 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" s="5"/>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -7880,8 +8220,9 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" s="5"/>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -7900,8 +8241,9 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50" s="5"/>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -7920,8 +8262,9 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51" s="5"/>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -7940,8 +8283,9 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52" s="5"/>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -7960,8 +8304,9 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53" s="5"/>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -7980,8 +8325,9 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54" s="5"/>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -8000,8 +8346,9 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55" s="5"/>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -8020,8 +8367,9 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="S56" s="5"/>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -8040,8 +8388,9 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="S57" s="5"/>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -8060,8 +8409,9 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="S58" s="5"/>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -8080,8 +8430,9 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="S59" s="5"/>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -8100,8 +8451,9 @@
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="S60" s="5"/>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -8120,8 +8472,9 @@
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="S61" s="5"/>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -8140,8 +8493,9 @@
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="S62" s="5"/>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -8160,8 +8514,9 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="S63" s="5"/>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -8180,8 +8535,9 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="S64" s="5"/>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -8200,8 +8556,9 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="S65" s="5"/>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -8220,8 +8577,9 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="S66" s="5"/>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -8240,8 +8598,9 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="S67" s="5"/>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -8260,8 +8619,9 @@
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="S68" s="5"/>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -8280,8 +8640,9 @@
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="S69" s="5"/>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -8300,8 +8661,9 @@
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="S70" s="5"/>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -8320,8 +8682,9 @@
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="S71" s="5"/>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -8340,8 +8703,9 @@
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="S72" s="5"/>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -8360,8 +8724,9 @@
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="S73" s="5"/>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -8380,8 +8745,9 @@
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="S74" s="5"/>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -8400,8 +8766,9 @@
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="S75" s="5"/>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -8420,8 +8787,9 @@
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="S76" s="5"/>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -8440,8 +8808,9 @@
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="S77" s="5"/>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -8460,8 +8829,9 @@
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="S78" s="5"/>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -8480,8 +8850,9 @@
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="S79" s="5"/>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -8500,8 +8871,9 @@
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="S80" s="5"/>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -8520,8 +8892,9 @@
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="S81" s="5"/>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -8540,8 +8913,9 @@
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="S82" s="5"/>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -8560,8 +8934,9 @@
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="S83" s="5"/>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -8580,8 +8955,9 @@
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="S84" s="5"/>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -8600,8 +8976,9 @@
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="S85" s="5"/>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -8620,8 +8997,9 @@
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="S86" s="5"/>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -8640,8 +9018,9 @@
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="S87" s="5"/>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -8660,8 +9039,9 @@
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="S88" s="5"/>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -8680,8 +9060,9 @@
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="S89" s="5"/>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -8700,8 +9081,9 @@
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="S90" s="5"/>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -8720,8 +9102,9 @@
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="S91" s="5"/>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -8740,8 +9123,9 @@
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="S92" s="5"/>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -8760,8 +9144,9 @@
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="S93" s="5"/>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -8780,8 +9165,9 @@
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="S94" s="5"/>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -8800,8 +9186,9 @@
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="S95" s="5"/>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -8820,8 +9207,9 @@
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="S96" s="5"/>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -8840,8 +9228,9 @@
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="S97" s="5"/>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -8860,8 +9249,9 @@
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="S98" s="5"/>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -8880,8 +9270,9 @@
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="S99" s="5"/>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -8900,8 +9291,9 @@
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="S100" s="5"/>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -8920,8 +9312,9 @@
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
-    </row>
-    <row r="102" spans="1:18">
+      <c r="S101" s="5"/>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -8940,8 +9333,9 @@
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
-    </row>
-    <row r="103" spans="1:18">
+      <c r="S102" s="5"/>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -8960,8 +9354,9 @@
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
-    </row>
-    <row r="104" spans="1:18">
+      <c r="S103" s="5"/>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -8980,8 +9375,9 @@
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
-    </row>
-    <row r="105" spans="1:18">
+      <c r="S104" s="5"/>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -9000,8 +9396,9 @@
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="S105" s="5"/>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -9020,8 +9417,9 @@
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="S106" s="5"/>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -9040,8 +9438,9 @@
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
-    </row>
-    <row r="108" spans="1:18">
+      <c r="S107" s="5"/>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -9060,8 +9459,9 @@
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="S108" s="5"/>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -9080,8 +9480,9 @@
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="S109" s="5"/>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -9100,8 +9501,9 @@
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="S110" s="5"/>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -9120,8 +9522,9 @@
       <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="S111" s="5"/>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -9140,8 +9543,9 @@
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
-    </row>
-    <row r="113" spans="1:18">
+      <c r="S112" s="5"/>
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -9160,8 +9564,9 @@
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
-    </row>
-    <row r="114" spans="1:18">
+      <c r="S113" s="5"/>
+    </row>
+    <row r="114" spans="1:19">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -9180,8 +9585,9 @@
       <c r="P114" s="5"/>
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
-    </row>
-    <row r="115" spans="1:18">
+      <c r="S114" s="5"/>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -9200,8 +9606,9 @@
       <c r="P115" s="5"/>
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
-    </row>
-    <row r="116" spans="1:18">
+      <c r="S115" s="5"/>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -9220,8 +9627,9 @@
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
-    </row>
-    <row r="117" spans="1:18">
+      <c r="S116" s="5"/>
+    </row>
+    <row r="117" spans="1:19">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -9240,8 +9648,9 @@
       <c r="P117" s="5"/>
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
-    </row>
-    <row r="118" spans="1:18">
+      <c r="S117" s="5"/>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -9260,8 +9669,9 @@
       <c r="P118" s="5"/>
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
-    </row>
-    <row r="119" spans="1:18">
+      <c r="S118" s="5"/>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -9280,8 +9690,9 @@
       <c r="P119" s="5"/>
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="S119" s="5"/>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -9300,8 +9711,9 @@
       <c r="P120" s="5"/>
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
-    </row>
-    <row r="121" spans="1:18">
+      <c r="S120" s="5"/>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -9320,8 +9732,9 @@
       <c r="P121" s="5"/>
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
-    </row>
-    <row r="122" spans="1:18">
+      <c r="S121" s="5"/>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -9340,8 +9753,9 @@
       <c r="P122" s="5"/>
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
-    </row>
-    <row r="123" spans="1:18">
+      <c r="S122" s="5"/>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -9360,8 +9774,9 @@
       <c r="P123" s="5"/>
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
-    </row>
-    <row r="124" spans="1:18">
+      <c r="S123" s="5"/>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -9380,8 +9795,9 @@
       <c r="P124" s="5"/>
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="S124" s="5"/>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -9400,8 +9816,9 @@
       <c r="P125" s="5"/>
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
-    </row>
-    <row r="126" spans="1:18">
+      <c r="S125" s="5"/>
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -9420,8 +9837,9 @@
       <c r="P126" s="5"/>
       <c r="Q126" s="5"/>
       <c r="R126" s="5"/>
-    </row>
-    <row r="127" spans="1:18">
+      <c r="S126" s="5"/>
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -9440,8 +9858,9 @@
       <c r="P127" s="5"/>
       <c r="Q127" s="5"/>
       <c r="R127" s="5"/>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="S127" s="5"/>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -9460,8 +9879,9 @@
       <c r="P128" s="5"/>
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
-    </row>
-    <row r="129" spans="1:18">
+      <c r="S128" s="5"/>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -9480,8 +9900,9 @@
       <c r="P129" s="5"/>
       <c r="Q129" s="5"/>
       <c r="R129" s="5"/>
-    </row>
-    <row r="130" spans="1:18">
+      <c r="S129" s="5"/>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -9500,8 +9921,9 @@
       <c r="P130" s="5"/>
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="S130" s="5"/>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -9520,8 +9942,9 @@
       <c r="P131" s="5"/>
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
-    </row>
-    <row r="132" spans="1:18">
+      <c r="S131" s="5"/>
+    </row>
+    <row r="132" spans="1:19">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -9540,8 +9963,9 @@
       <c r="P132" s="5"/>
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
-    </row>
-    <row r="133" spans="1:18">
+      <c r="S132" s="5"/>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -9560,8 +9984,9 @@
       <c r="P133" s="5"/>
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
-    </row>
-    <row r="134" spans="1:18">
+      <c r="S133" s="5"/>
+    </row>
+    <row r="134" spans="1:19">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -9580,8 +10005,9 @@
       <c r="P134" s="5"/>
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
-    </row>
-    <row r="135" spans="1:18">
+      <c r="S134" s="5"/>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -9600,8 +10026,9 @@
       <c r="P135" s="5"/>
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
-    </row>
-    <row r="136" spans="1:18">
+      <c r="S135" s="5"/>
+    </row>
+    <row r="136" spans="1:19">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -9620,8 +10047,9 @@
       <c r="P136" s="5"/>
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
-    </row>
-    <row r="137" spans="1:18">
+      <c r="S136" s="5"/>
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -9640,8 +10068,9 @@
       <c r="P137" s="5"/>
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
-    </row>
-    <row r="138" spans="1:18">
+      <c r="S137" s="5"/>
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -9660,8 +10089,9 @@
       <c r="P138" s="5"/>
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
-    </row>
-    <row r="139" spans="1:18">
+      <c r="S138" s="5"/>
+    </row>
+    <row r="139" spans="1:19">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -9680,8 +10110,9 @@
       <c r="P139" s="5"/>
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
-    </row>
-    <row r="140" spans="1:18">
+      <c r="S139" s="5"/>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -9700,8 +10131,9 @@
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
-    </row>
-    <row r="141" spans="1:18">
+      <c r="S140" s="5"/>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -9720,8 +10152,9 @@
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
-    </row>
-    <row r="142" spans="1:18">
+      <c r="S141" s="5"/>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -9740,8 +10173,9 @@
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
-    </row>
-    <row r="143" spans="1:18">
+      <c r="S142" s="5"/>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -9760,8 +10194,9 @@
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
-    </row>
-    <row r="144" spans="1:18">
+      <c r="S143" s="5"/>
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -9780,8 +10215,9 @@
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
-    </row>
-    <row r="145" spans="1:18">
+      <c r="S144" s="5"/>
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -9800,8 +10236,9 @@
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
       <c r="R145" s="5"/>
-    </row>
-    <row r="146" spans="1:18">
+      <c r="S145" s="5"/>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -9820,8 +10257,9 @@
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
-    </row>
-    <row r="147" spans="1:18">
+      <c r="S146" s="5"/>
+    </row>
+    <row r="147" spans="1:19">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -9840,8 +10278,9 @@
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="S147" s="5"/>
+    </row>
+    <row r="148" spans="1:19">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -9860,8 +10299,9 @@
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
-    </row>
-    <row r="149" spans="1:18">
+      <c r="S148" s="5"/>
+    </row>
+    <row r="149" spans="1:19">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -9880,8 +10320,9 @@
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
-    </row>
-    <row r="150" spans="1:18">
+      <c r="S149" s="5"/>
+    </row>
+    <row r="150" spans="1:19">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -9900,8 +10341,9 @@
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
-    </row>
-    <row r="151" spans="1:18">
+      <c r="S150" s="5"/>
+    </row>
+    <row r="151" spans="1:19">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -9920,8 +10362,9 @@
       <c r="P151" s="5"/>
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
-    </row>
-    <row r="152" spans="1:18">
+      <c r="S151" s="5"/>
+    </row>
+    <row r="152" spans="1:19">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -9940,8 +10383,9 @@
       <c r="P152" s="5"/>
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
-    </row>
-    <row r="153" spans="1:18">
+      <c r="S152" s="5"/>
+    </row>
+    <row r="153" spans="1:19">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -9960,8 +10404,9 @@
       <c r="P153" s="5"/>
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
-    </row>
-    <row r="154" spans="1:18">
+      <c r="S153" s="5"/>
+    </row>
+    <row r="154" spans="1:19">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -9980,8 +10425,9 @@
       <c r="P154" s="5"/>
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
-    </row>
-    <row r="155" spans="1:18">
+      <c r="S154" s="5"/>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -10000,8 +10446,9 @@
       <c r="P155" s="5"/>
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
-    </row>
-    <row r="156" spans="1:18">
+      <c r="S155" s="5"/>
+    </row>
+    <row r="156" spans="1:19">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -10020,8 +10467,9 @@
       <c r="P156" s="5"/>
       <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
-    </row>
-    <row r="157" spans="1:18">
+      <c r="S156" s="5"/>
+    </row>
+    <row r="157" spans="1:19">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -10040,8 +10488,9 @@
       <c r="P157" s="5"/>
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
-    </row>
-    <row r="158" spans="1:18">
+      <c r="S157" s="5"/>
+    </row>
+    <row r="158" spans="1:19">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -10060,8 +10509,9 @@
       <c r="P158" s="5"/>
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
-    </row>
-    <row r="159" spans="1:18">
+      <c r="S158" s="5"/>
+    </row>
+    <row r="159" spans="1:19">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -10080,8 +10530,9 @@
       <c r="P159" s="5"/>
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
-    </row>
-    <row r="160" spans="1:18">
+      <c r="S159" s="5"/>
+    </row>
+    <row r="160" spans="1:19">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -10100,8 +10551,9 @@
       <c r="P160" s="5"/>
       <c r="Q160" s="5"/>
       <c r="R160" s="5"/>
-    </row>
-    <row r="161" spans="1:18">
+      <c r="S160" s="5"/>
+    </row>
+    <row r="161" spans="1:19">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -10120,8 +10572,9 @@
       <c r="P161" s="5"/>
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
-    </row>
-    <row r="162" spans="1:18">
+      <c r="S161" s="5"/>
+    </row>
+    <row r="162" spans="1:19">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -10140,8 +10593,9 @@
       <c r="P162" s="5"/>
       <c r="Q162" s="5"/>
       <c r="R162" s="5"/>
-    </row>
-    <row r="163" spans="1:18">
+      <c r="S162" s="5"/>
+    </row>
+    <row r="163" spans="1:19">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -10160,8 +10614,9 @@
       <c r="P163" s="5"/>
       <c r="Q163" s="5"/>
       <c r="R163" s="5"/>
-    </row>
-    <row r="164" spans="1:18">
+      <c r="S163" s="5"/>
+    </row>
+    <row r="164" spans="1:19">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -10180,8 +10635,9 @@
       <c r="P164" s="5"/>
       <c r="Q164" s="5"/>
       <c r="R164" s="5"/>
-    </row>
-    <row r="165" spans="1:18">
+      <c r="S164" s="5"/>
+    </row>
+    <row r="165" spans="1:19">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -10200,8 +10656,9 @@
       <c r="P165" s="5"/>
       <c r="Q165" s="5"/>
       <c r="R165" s="5"/>
-    </row>
-    <row r="166" spans="1:18">
+      <c r="S165" s="5"/>
+    </row>
+    <row r="166" spans="1:19">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -10220,8 +10677,9 @@
       <c r="P166" s="5"/>
       <c r="Q166" s="5"/>
       <c r="R166" s="5"/>
-    </row>
-    <row r="167" spans="1:18">
+      <c r="S166" s="5"/>
+    </row>
+    <row r="167" spans="1:19">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -10240,8 +10698,9 @@
       <c r="P167" s="5"/>
       <c r="Q167" s="5"/>
       <c r="R167" s="5"/>
-    </row>
-    <row r="168" spans="1:18">
+      <c r="S167" s="5"/>
+    </row>
+    <row r="168" spans="1:19">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -10260,8 +10719,9 @@
       <c r="P168" s="5"/>
       <c r="Q168" s="5"/>
       <c r="R168" s="5"/>
-    </row>
-    <row r="169" spans="1:18">
+      <c r="S168" s="5"/>
+    </row>
+    <row r="169" spans="1:19">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -10280,8 +10740,9 @@
       <c r="P169" s="5"/>
       <c r="Q169" s="5"/>
       <c r="R169" s="5"/>
-    </row>
-    <row r="170" spans="1:18">
+      <c r="S169" s="5"/>
+    </row>
+    <row r="170" spans="1:19">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -10300,8 +10761,9 @@
       <c r="P170" s="5"/>
       <c r="Q170" s="5"/>
       <c r="R170" s="5"/>
-    </row>
-    <row r="171" spans="1:18">
+      <c r="S170" s="5"/>
+    </row>
+    <row r="171" spans="1:19">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -10320,8 +10782,9 @@
       <c r="P171" s="5"/>
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
-    </row>
-    <row r="172" spans="1:18">
+      <c r="S171" s="5"/>
+    </row>
+    <row r="172" spans="1:19">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -10340,8 +10803,9 @@
       <c r="P172" s="5"/>
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
-    </row>
-    <row r="173" spans="1:18">
+      <c r="S172" s="5"/>
+    </row>
+    <row r="173" spans="1:19">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -10360,8 +10824,9 @@
       <c r="P173" s="5"/>
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
-    </row>
-    <row r="174" spans="1:18">
+      <c r="S173" s="5"/>
+    </row>
+    <row r="174" spans="1:19">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -10380,8 +10845,9 @@
       <c r="P174" s="5"/>
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
-    </row>
-    <row r="175" spans="1:18">
+      <c r="S174" s="5"/>
+    </row>
+    <row r="175" spans="1:19">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -10400,8 +10866,9 @@
       <c r="P175" s="5"/>
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
-    </row>
-    <row r="176" spans="1:18">
+      <c r="S175" s="5"/>
+    </row>
+    <row r="176" spans="1:19">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -10420,8 +10887,9 @@
       <c r="P176" s="5"/>
       <c r="Q176" s="5"/>
       <c r="R176" s="5"/>
-    </row>
-    <row r="177" spans="1:18">
+      <c r="S176" s="5"/>
+    </row>
+    <row r="177" spans="1:19">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -10440,8 +10908,9 @@
       <c r="P177" s="5"/>
       <c r="Q177" s="5"/>
       <c r="R177" s="5"/>
-    </row>
-    <row r="178" spans="1:18">
+      <c r="S177" s="5"/>
+    </row>
+    <row r="178" spans="1:19">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -10460,8 +10929,9 @@
       <c r="P178" s="5"/>
       <c r="Q178" s="5"/>
       <c r="R178" s="5"/>
-    </row>
-    <row r="179" spans="1:18">
+      <c r="S178" s="5"/>
+    </row>
+    <row r="179" spans="1:19">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -10480,8 +10950,9 @@
       <c r="P179" s="5"/>
       <c r="Q179" s="5"/>
       <c r="R179" s="5"/>
-    </row>
-    <row r="180" spans="1:18">
+      <c r="S179" s="5"/>
+    </row>
+    <row r="180" spans="1:19">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -10500,8 +10971,9 @@
       <c r="P180" s="5"/>
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
-    </row>
-    <row r="181" spans="1:18">
+      <c r="S180" s="5"/>
+    </row>
+    <row r="181" spans="1:19">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -10520,8 +10992,9 @@
       <c r="P181" s="5"/>
       <c r="Q181" s="5"/>
       <c r="R181" s="5"/>
-    </row>
-    <row r="182" spans="1:18">
+      <c r="S181" s="5"/>
+    </row>
+    <row r="182" spans="1:19">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -10540,8 +11013,9 @@
       <c r="P182" s="5"/>
       <c r="Q182" s="5"/>
       <c r="R182" s="5"/>
-    </row>
-    <row r="183" spans="1:18">
+      <c r="S182" s="5"/>
+    </row>
+    <row r="183" spans="1:19">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -10560,8 +11034,9 @@
       <c r="P183" s="5"/>
       <c r="Q183" s="5"/>
       <c r="R183" s="5"/>
-    </row>
-    <row r="184" spans="1:18">
+      <c r="S183" s="5"/>
+    </row>
+    <row r="184" spans="1:19">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -10580,8 +11055,9 @@
       <c r="P184" s="5"/>
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
-    </row>
-    <row r="185" spans="1:18">
+      <c r="S184" s="5"/>
+    </row>
+    <row r="185" spans="1:19">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -10600,8 +11076,9 @@
       <c r="P185" s="5"/>
       <c r="Q185" s="5"/>
       <c r="R185" s="5"/>
-    </row>
-    <row r="186" spans="1:18">
+      <c r="S185" s="5"/>
+    </row>
+    <row r="186" spans="1:19">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -10620,8 +11097,9 @@
       <c r="P186" s="5"/>
       <c r="Q186" s="5"/>
       <c r="R186" s="5"/>
-    </row>
-    <row r="187" spans="1:18">
+      <c r="S186" s="5"/>
+    </row>
+    <row r="187" spans="1:19">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -10640,8 +11118,9 @@
       <c r="P187" s="5"/>
       <c r="Q187" s="5"/>
       <c r="R187" s="5"/>
-    </row>
-    <row r="188" spans="1:18">
+      <c r="S187" s="5"/>
+    </row>
+    <row r="188" spans="1:19">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -10660,8 +11139,9 @@
       <c r="P188" s="5"/>
       <c r="Q188" s="5"/>
       <c r="R188" s="5"/>
-    </row>
-    <row r="189" spans="1:18">
+      <c r="S188" s="5"/>
+    </row>
+    <row r="189" spans="1:19">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -10680,8 +11160,9 @@
       <c r="P189" s="5"/>
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
-    </row>
-    <row r="190" spans="1:18">
+      <c r="S189" s="5"/>
+    </row>
+    <row r="190" spans="1:19">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -10700,8 +11181,9 @@
       <c r="P190" s="5"/>
       <c r="Q190" s="5"/>
       <c r="R190" s="5"/>
-    </row>
-    <row r="191" spans="1:18">
+      <c r="S190" s="5"/>
+    </row>
+    <row r="191" spans="1:19">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -10720,8 +11202,9 @@
       <c r="P191" s="5"/>
       <c r="Q191" s="5"/>
       <c r="R191" s="5"/>
-    </row>
-    <row r="192" spans="1:18">
+      <c r="S191" s="5"/>
+    </row>
+    <row r="192" spans="1:19">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -10740,8 +11223,9 @@
       <c r="P192" s="5"/>
       <c r="Q192" s="5"/>
       <c r="R192" s="5"/>
-    </row>
-    <row r="193" spans="1:18">
+      <c r="S192" s="5"/>
+    </row>
+    <row r="193" spans="1:19">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -10760,8 +11244,9 @@
       <c r="P193" s="5"/>
       <c r="Q193" s="5"/>
       <c r="R193" s="5"/>
-    </row>
-    <row r="194" spans="1:18">
+      <c r="S193" s="5"/>
+    </row>
+    <row r="194" spans="1:19">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -10780,8 +11265,9 @@
       <c r="P194" s="5"/>
       <c r="Q194" s="5"/>
       <c r="R194" s="5"/>
-    </row>
-    <row r="195" spans="1:18">
+      <c r="S194" s="5"/>
+    </row>
+    <row r="195" spans="1:19">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -10800,8 +11286,9 @@
       <c r="P195" s="5"/>
       <c r="Q195" s="5"/>
       <c r="R195" s="5"/>
-    </row>
-    <row r="196" spans="1:18">
+      <c r="S195" s="5"/>
+    </row>
+    <row r="196" spans="1:19">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -10820,8 +11307,9 @@
       <c r="P196" s="5"/>
       <c r="Q196" s="5"/>
       <c r="R196" s="5"/>
-    </row>
-    <row r="197" spans="1:18">
+      <c r="S196" s="5"/>
+    </row>
+    <row r="197" spans="1:19">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -10840,8 +11328,9 @@
       <c r="P197" s="5"/>
       <c r="Q197" s="5"/>
       <c r="R197" s="5"/>
-    </row>
-    <row r="198" spans="1:18">
+      <c r="S197" s="5"/>
+    </row>
+    <row r="198" spans="1:19">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -10860,8 +11349,9 @@
       <c r="P198" s="5"/>
       <c r="Q198" s="5"/>
       <c r="R198" s="5"/>
-    </row>
-    <row r="199" spans="1:18">
+      <c r="S198" s="5"/>
+    </row>
+    <row r="199" spans="1:19">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -10880,8 +11370,9 @@
       <c r="P199" s="5"/>
       <c r="Q199" s="5"/>
       <c r="R199" s="5"/>
-    </row>
-    <row r="200" spans="1:18">
+      <c r="S199" s="5"/>
+    </row>
+    <row r="200" spans="1:19">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -10900,6 +11391,7 @@
       <c r="P200" s="5"/>
       <c r="Q200" s="5"/>
       <c r="R200" s="5"/>
+      <c r="S200" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -10910,10 +11402,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R200"/>
+  <dimension ref="A1:S200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -10922,470 +11414,497 @@
     <col min="2" max="2" width="14"/>
     <col min="3" max="3" width="23.125"/>
     <col min="4" max="4" width="20.25"/>
-    <col min="5" max="5" width="10.125"/>
-    <col min="6" max="6" width="6.875"/>
-    <col min="7" max="7" width="13.125"/>
-    <col min="8" max="8" width="17.75"/>
-    <col min="9" max="9" width="10.625"/>
-    <col min="10" max="10" width="11.5"/>
-    <col min="11" max="11" width="12.25"/>
-    <col min="12" max="12" width="11.625"/>
-    <col min="13" max="13" width="12.25"/>
-    <col min="14" max="14" width="10.625"/>
-    <col min="15" max="15" width="14.75"/>
-    <col min="16" max="16" width="23.75"/>
-    <col min="17" max="18" width="8.75"/>
+    <col min="6" max="6" width="10.125"/>
+    <col min="7" max="7" width="6.875"/>
+    <col min="8" max="8" width="13.125"/>
+    <col min="9" max="9" width="17.75"/>
+    <col min="10" max="10" width="10.625"/>
+    <col min="11" max="11" width="11.5"/>
+    <col min="12" max="12" width="12.25"/>
+    <col min="13" max="13" width="11.625"/>
+    <col min="14" max="14" width="12.25"/>
+    <col min="15" max="15" width="10.625"/>
+    <col min="16" max="16" width="14.75"/>
+    <col min="17" max="17" width="23.75"/>
+    <col min="18" max="19" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="29.1" customHeight="1">
+    <row r="1" spans="1:19" ht="29.1" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q1" s="5"/>
+      <c r="Q1" s="21" t="s">
+        <v>97</v>
+      </c>
       <c r="R1" s="5"/>
-    </row>
-    <row r="2" spans="1:18" ht="117" customHeight="1">
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" spans="1:19" ht="117" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q2" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" ht="117" customHeight="1">
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="1:19" ht="117" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>23</v>
+      <c r="E3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q3" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>99</v>
+      </c>
       <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" ht="117" customHeight="1">
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" ht="117" customHeight="1">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>23</v>
+      <c r="E4" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q4" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>100</v>
+      </c>
       <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" ht="215.1" customHeight="1">
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" ht="215.1" customHeight="1">
       <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>23</v>
+      <c r="E5" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q5" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>101</v>
+      </c>
       <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" ht="117" customHeight="1">
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" ht="117" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>23</v>
+      <c r="E6" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q6" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" ht="176.1" customHeight="1">
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" ht="176.1" customHeight="1">
       <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>23</v>
+      <c r="E7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q7" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" ht="117" customHeight="1">
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" ht="117" customHeight="1">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q8" s="5"/>
+      <c r="G8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" s="23"/>
+      <c r="P8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>104</v>
+      </c>
       <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" ht="135.94999999999999" customHeight="1">
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" ht="135.94999999999999" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="N9" s="23"/>
-      <c r="O9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q9" s="5"/>
+      <c r="G9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" s="23"/>
+      <c r="P9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -11404,8 +11923,9 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -11424,8 +11944,9 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -11444,8 +11965,9 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -11464,8 +11986,9 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -11484,8 +12007,9 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -11504,8 +12028,9 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -11524,8 +12049,9 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -11544,8 +12070,9 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -11564,8 +12091,9 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -11584,8 +12112,9 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -11604,8 +12133,9 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -11624,8 +12154,9 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -11644,8 +12175,9 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -11664,8 +12196,9 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -11684,8 +12217,9 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -11704,8 +12238,9 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -11724,8 +12259,9 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -11744,8 +12280,9 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -11764,8 +12301,9 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -11784,8 +12322,9 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="5"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -11804,8 +12343,9 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="5"/>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -11824,8 +12364,9 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="5"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -11844,8 +12385,9 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="5"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -11864,8 +12406,9 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="5"/>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -11884,8 +12427,9 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="5"/>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -11904,8 +12448,9 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="5"/>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11924,8 +12469,9 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="5"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -11944,8 +12490,9 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="5"/>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -11964,8 +12511,9 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="5"/>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -11984,8 +12532,9 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" s="5"/>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -12004,8 +12553,9 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" s="5"/>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -12024,8 +12574,9 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" s="5"/>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -12044,8 +12595,9 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" s="5"/>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -12064,8 +12616,9 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" s="5"/>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -12084,8 +12637,9 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" s="5"/>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -12104,8 +12658,9 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45" s="5"/>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -12124,8 +12679,9 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" s="5"/>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -12144,8 +12700,9 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47" s="5"/>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -12164,8 +12721,9 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" s="5"/>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -12184,8 +12742,9 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" s="5"/>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -12204,8 +12763,9 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50" s="5"/>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -12224,8 +12784,9 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51" s="5"/>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -12244,8 +12805,9 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52" s="5"/>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -12264,8 +12826,9 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53" s="5"/>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -12284,8 +12847,9 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54" s="5"/>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -12304,8 +12868,9 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55" s="5"/>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -12324,8 +12889,9 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="S56" s="5"/>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -12344,8 +12910,9 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="S57" s="5"/>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -12364,8 +12931,9 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="S58" s="5"/>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -12384,8 +12952,9 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="S59" s="5"/>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -12404,8 +12973,9 @@
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="S60" s="5"/>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -12424,8 +12994,9 @@
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="S61" s="5"/>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -12444,8 +13015,9 @@
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="S62" s="5"/>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -12464,8 +13036,9 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="S63" s="5"/>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -12484,8 +13057,9 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="S64" s="5"/>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -12504,8 +13078,9 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="S65" s="5"/>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -12524,8 +13099,9 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="S66" s="5"/>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -12544,8 +13120,9 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="S67" s="5"/>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -12564,8 +13141,9 @@
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="S68" s="5"/>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -12584,8 +13162,9 @@
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="S69" s="5"/>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -12604,8 +13183,9 @@
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="S70" s="5"/>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -12624,8 +13204,9 @@
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="S71" s="5"/>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -12644,8 +13225,9 @@
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="S72" s="5"/>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -12664,8 +13246,9 @@
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="S73" s="5"/>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -12684,8 +13267,9 @@
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="S74" s="5"/>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -12704,8 +13288,9 @@
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="S75" s="5"/>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -12724,8 +13309,9 @@
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="S76" s="5"/>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -12744,8 +13330,9 @@
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="S77" s="5"/>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -12764,8 +13351,9 @@
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="S78" s="5"/>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -12784,8 +13372,9 @@
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="S79" s="5"/>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -12804,8 +13393,9 @@
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="S80" s="5"/>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -12824,8 +13414,9 @@
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="S81" s="5"/>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -12844,8 +13435,9 @@
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="S82" s="5"/>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -12864,8 +13456,9 @@
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="S83" s="5"/>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12884,8 +13477,9 @@
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="S84" s="5"/>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -12904,8 +13498,9 @@
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="S85" s="5"/>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -12924,8 +13519,9 @@
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="S86" s="5"/>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -12944,8 +13540,9 @@
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="S87" s="5"/>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -12964,8 +13561,9 @@
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="S88" s="5"/>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -12984,8 +13582,9 @@
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="S89" s="5"/>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -13004,8 +13603,9 @@
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="S90" s="5"/>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -13024,8 +13624,9 @@
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="S91" s="5"/>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -13044,8 +13645,9 @@
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="S92" s="5"/>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -13064,8 +13666,9 @@
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="S93" s="5"/>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -13084,8 +13687,9 @@
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="S94" s="5"/>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -13104,8 +13708,9 @@
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="S95" s="5"/>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -13124,8 +13729,9 @@
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="S96" s="5"/>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -13144,8 +13750,9 @@
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="S97" s="5"/>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -13164,8 +13771,9 @@
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="S98" s="5"/>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -13184,8 +13792,9 @@
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="S99" s="5"/>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -13204,8 +13813,9 @@
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="S100" s="5"/>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -13224,8 +13834,9 @@
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
-    </row>
-    <row r="102" spans="1:18">
+      <c r="S101" s="5"/>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -13244,8 +13855,9 @@
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
-    </row>
-    <row r="103" spans="1:18">
+      <c r="S102" s="5"/>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -13264,8 +13876,9 @@
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
-    </row>
-    <row r="104" spans="1:18">
+      <c r="S103" s="5"/>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -13284,8 +13897,9 @@
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
-    </row>
-    <row r="105" spans="1:18">
+      <c r="S104" s="5"/>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -13304,8 +13918,9 @@
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="S105" s="5"/>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -13324,8 +13939,9 @@
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="S106" s="5"/>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -13344,8 +13960,9 @@
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
-    </row>
-    <row r="108" spans="1:18">
+      <c r="S107" s="5"/>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -13364,8 +13981,9 @@
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="S108" s="5"/>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -13384,8 +14002,9 @@
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="S109" s="5"/>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -13404,8 +14023,9 @@
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="S110" s="5"/>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -13424,8 +14044,9 @@
       <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="S111" s="5"/>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -13444,8 +14065,9 @@
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
-    </row>
-    <row r="113" spans="1:18">
+      <c r="S112" s="5"/>
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -13464,8 +14086,9 @@
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
-    </row>
-    <row r="114" spans="1:18">
+      <c r="S113" s="5"/>
+    </row>
+    <row r="114" spans="1:19">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -13484,8 +14107,9 @@
       <c r="P114" s="5"/>
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
-    </row>
-    <row r="115" spans="1:18">
+      <c r="S114" s="5"/>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13504,8 +14128,9 @@
       <c r="P115" s="5"/>
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
-    </row>
-    <row r="116" spans="1:18">
+      <c r="S115" s="5"/>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -13524,8 +14149,9 @@
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
-    </row>
-    <row r="117" spans="1:18">
+      <c r="S116" s="5"/>
+    </row>
+    <row r="117" spans="1:19">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -13544,8 +14170,9 @@
       <c r="P117" s="5"/>
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
-    </row>
-    <row r="118" spans="1:18">
+      <c r="S117" s="5"/>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -13564,8 +14191,9 @@
       <c r="P118" s="5"/>
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
-    </row>
-    <row r="119" spans="1:18">
+      <c r="S118" s="5"/>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -13584,8 +14212,9 @@
       <c r="P119" s="5"/>
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="S119" s="5"/>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -13604,8 +14233,9 @@
       <c r="P120" s="5"/>
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
-    </row>
-    <row r="121" spans="1:18">
+      <c r="S120" s="5"/>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -13624,8 +14254,9 @@
       <c r="P121" s="5"/>
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
-    </row>
-    <row r="122" spans="1:18">
+      <c r="S121" s="5"/>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -13644,8 +14275,9 @@
       <c r="P122" s="5"/>
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
-    </row>
-    <row r="123" spans="1:18">
+      <c r="S122" s="5"/>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -13664,8 +14296,9 @@
       <c r="P123" s="5"/>
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
-    </row>
-    <row r="124" spans="1:18">
+      <c r="S123" s="5"/>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -13684,8 +14317,9 @@
       <c r="P124" s="5"/>
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="S124" s="5"/>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -13704,8 +14338,9 @@
       <c r="P125" s="5"/>
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
-    </row>
-    <row r="126" spans="1:18">
+      <c r="S125" s="5"/>
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -13724,8 +14359,9 @@
       <c r="P126" s="5"/>
       <c r="Q126" s="5"/>
       <c r="R126" s="5"/>
-    </row>
-    <row r="127" spans="1:18">
+      <c r="S126" s="5"/>
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -13744,8 +14380,9 @@
       <c r="P127" s="5"/>
       <c r="Q127" s="5"/>
       <c r="R127" s="5"/>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="S127" s="5"/>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -13764,8 +14401,9 @@
       <c r="P128" s="5"/>
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
-    </row>
-    <row r="129" spans="1:18">
+      <c r="S128" s="5"/>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -13784,8 +14422,9 @@
       <c r="P129" s="5"/>
       <c r="Q129" s="5"/>
       <c r="R129" s="5"/>
-    </row>
-    <row r="130" spans="1:18">
+      <c r="S129" s="5"/>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -13804,8 +14443,9 @@
       <c r="P130" s="5"/>
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="S130" s="5"/>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -13824,8 +14464,9 @@
       <c r="P131" s="5"/>
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
-    </row>
-    <row r="132" spans="1:18">
+      <c r="S131" s="5"/>
+    </row>
+    <row r="132" spans="1:19">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -13844,8 +14485,9 @@
       <c r="P132" s="5"/>
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
-    </row>
-    <row r="133" spans="1:18">
+      <c r="S132" s="5"/>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -13864,8 +14506,9 @@
       <c r="P133" s="5"/>
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
-    </row>
-    <row r="134" spans="1:18">
+      <c r="S133" s="5"/>
+    </row>
+    <row r="134" spans="1:19">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -13884,8 +14527,9 @@
       <c r="P134" s="5"/>
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
-    </row>
-    <row r="135" spans="1:18">
+      <c r="S134" s="5"/>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -13904,8 +14548,9 @@
       <c r="P135" s="5"/>
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
-    </row>
-    <row r="136" spans="1:18">
+      <c r="S135" s="5"/>
+    </row>
+    <row r="136" spans="1:19">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -13924,8 +14569,9 @@
       <c r="P136" s="5"/>
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
-    </row>
-    <row r="137" spans="1:18">
+      <c r="S136" s="5"/>
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -13944,8 +14590,9 @@
       <c r="P137" s="5"/>
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
-    </row>
-    <row r="138" spans="1:18">
+      <c r="S137" s="5"/>
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -13964,8 +14611,9 @@
       <c r="P138" s="5"/>
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
-    </row>
-    <row r="139" spans="1:18">
+      <c r="S138" s="5"/>
+    </row>
+    <row r="139" spans="1:19">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -13984,8 +14632,9 @@
       <c r="P139" s="5"/>
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
-    </row>
-    <row r="140" spans="1:18">
+      <c r="S139" s="5"/>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -14004,8 +14653,9 @@
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
-    </row>
-    <row r="141" spans="1:18">
+      <c r="S140" s="5"/>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -14024,8 +14674,9 @@
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
-    </row>
-    <row r="142" spans="1:18">
+      <c r="S141" s="5"/>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -14044,8 +14695,9 @@
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
-    </row>
-    <row r="143" spans="1:18">
+      <c r="S142" s="5"/>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -14064,8 +14716,9 @@
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
-    </row>
-    <row r="144" spans="1:18">
+      <c r="S143" s="5"/>
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -14084,8 +14737,9 @@
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
-    </row>
-    <row r="145" spans="1:18">
+      <c r="S144" s="5"/>
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -14104,8 +14758,9 @@
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
       <c r="R145" s="5"/>
-    </row>
-    <row r="146" spans="1:18">
+      <c r="S145" s="5"/>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -14124,8 +14779,9 @@
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
-    </row>
-    <row r="147" spans="1:18">
+      <c r="S146" s="5"/>
+    </row>
+    <row r="147" spans="1:19">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -14144,8 +14800,9 @@
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="S147" s="5"/>
+    </row>
+    <row r="148" spans="1:19">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -14164,8 +14821,9 @@
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
-    </row>
-    <row r="149" spans="1:18">
+      <c r="S148" s="5"/>
+    </row>
+    <row r="149" spans="1:19">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -14184,8 +14842,9 @@
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
-    </row>
-    <row r="150" spans="1:18">
+      <c r="S149" s="5"/>
+    </row>
+    <row r="150" spans="1:19">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -14204,8 +14863,9 @@
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
-    </row>
-    <row r="151" spans="1:18">
+      <c r="S150" s="5"/>
+    </row>
+    <row r="151" spans="1:19">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -14224,8 +14884,9 @@
       <c r="P151" s="5"/>
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
-    </row>
-    <row r="152" spans="1:18">
+      <c r="S151" s="5"/>
+    </row>
+    <row r="152" spans="1:19">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -14244,8 +14905,9 @@
       <c r="P152" s="5"/>
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
-    </row>
-    <row r="153" spans="1:18">
+      <c r="S152" s="5"/>
+    </row>
+    <row r="153" spans="1:19">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -14264,8 +14926,9 @@
       <c r="P153" s="5"/>
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
-    </row>
-    <row r="154" spans="1:18">
+      <c r="S153" s="5"/>
+    </row>
+    <row r="154" spans="1:19">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -14284,8 +14947,9 @@
       <c r="P154" s="5"/>
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
-    </row>
-    <row r="155" spans="1:18">
+      <c r="S154" s="5"/>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -14304,8 +14968,9 @@
       <c r="P155" s="5"/>
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
-    </row>
-    <row r="156" spans="1:18">
+      <c r="S155" s="5"/>
+    </row>
+    <row r="156" spans="1:19">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -14324,8 +14989,9 @@
       <c r="P156" s="5"/>
       <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
-    </row>
-    <row r="157" spans="1:18">
+      <c r="S156" s="5"/>
+    </row>
+    <row r="157" spans="1:19">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -14344,8 +15010,9 @@
       <c r="P157" s="5"/>
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
-    </row>
-    <row r="158" spans="1:18">
+      <c r="S157" s="5"/>
+    </row>
+    <row r="158" spans="1:19">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -14364,8 +15031,9 @@
       <c r="P158" s="5"/>
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
-    </row>
-    <row r="159" spans="1:18">
+      <c r="S158" s="5"/>
+    </row>
+    <row r="159" spans="1:19">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -14384,8 +15052,9 @@
       <c r="P159" s="5"/>
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
-    </row>
-    <row r="160" spans="1:18">
+      <c r="S159" s="5"/>
+    </row>
+    <row r="160" spans="1:19">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -14404,8 +15073,9 @@
       <c r="P160" s="5"/>
       <c r="Q160" s="5"/>
       <c r="R160" s="5"/>
-    </row>
-    <row r="161" spans="1:18">
+      <c r="S160" s="5"/>
+    </row>
+    <row r="161" spans="1:19">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -14424,8 +15094,9 @@
       <c r="P161" s="5"/>
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
-    </row>
-    <row r="162" spans="1:18">
+      <c r="S161" s="5"/>
+    </row>
+    <row r="162" spans="1:19">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -14444,8 +15115,9 @@
       <c r="P162" s="5"/>
       <c r="Q162" s="5"/>
       <c r="R162" s="5"/>
-    </row>
-    <row r="163" spans="1:18">
+      <c r="S162" s="5"/>
+    </row>
+    <row r="163" spans="1:19">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -14464,8 +15136,9 @@
       <c r="P163" s="5"/>
       <c r="Q163" s="5"/>
       <c r="R163" s="5"/>
-    </row>
-    <row r="164" spans="1:18">
+      <c r="S163" s="5"/>
+    </row>
+    <row r="164" spans="1:19">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -14484,8 +15157,9 @@
       <c r="P164" s="5"/>
       <c r="Q164" s="5"/>
       <c r="R164" s="5"/>
-    </row>
-    <row r="165" spans="1:18">
+      <c r="S164" s="5"/>
+    </row>
+    <row r="165" spans="1:19">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -14504,8 +15178,9 @@
       <c r="P165" s="5"/>
       <c r="Q165" s="5"/>
       <c r="R165" s="5"/>
-    </row>
-    <row r="166" spans="1:18">
+      <c r="S165" s="5"/>
+    </row>
+    <row r="166" spans="1:19">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -14524,8 +15199,9 @@
       <c r="P166" s="5"/>
       <c r="Q166" s="5"/>
       <c r="R166" s="5"/>
-    </row>
-    <row r="167" spans="1:18">
+      <c r="S166" s="5"/>
+    </row>
+    <row r="167" spans="1:19">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -14544,8 +15220,9 @@
       <c r="P167" s="5"/>
       <c r="Q167" s="5"/>
       <c r="R167" s="5"/>
-    </row>
-    <row r="168" spans="1:18">
+      <c r="S167" s="5"/>
+    </row>
+    <row r="168" spans="1:19">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -14564,8 +15241,9 @@
       <c r="P168" s="5"/>
       <c r="Q168" s="5"/>
       <c r="R168" s="5"/>
-    </row>
-    <row r="169" spans="1:18">
+      <c r="S168" s="5"/>
+    </row>
+    <row r="169" spans="1:19">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -14584,8 +15262,9 @@
       <c r="P169" s="5"/>
       <c r="Q169" s="5"/>
       <c r="R169" s="5"/>
-    </row>
-    <row r="170" spans="1:18">
+      <c r="S169" s="5"/>
+    </row>
+    <row r="170" spans="1:19">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -14604,8 +15283,9 @@
       <c r="P170" s="5"/>
       <c r="Q170" s="5"/>
       <c r="R170" s="5"/>
-    </row>
-    <row r="171" spans="1:18">
+      <c r="S170" s="5"/>
+    </row>
+    <row r="171" spans="1:19">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -14624,8 +15304,9 @@
       <c r="P171" s="5"/>
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
-    </row>
-    <row r="172" spans="1:18">
+      <c r="S171" s="5"/>
+    </row>
+    <row r="172" spans="1:19">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -14644,8 +15325,9 @@
       <c r="P172" s="5"/>
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
-    </row>
-    <row r="173" spans="1:18">
+      <c r="S172" s="5"/>
+    </row>
+    <row r="173" spans="1:19">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -14664,8 +15346,9 @@
       <c r="P173" s="5"/>
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
-    </row>
-    <row r="174" spans="1:18">
+      <c r="S173" s="5"/>
+    </row>
+    <row r="174" spans="1:19">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -14684,8 +15367,9 @@
       <c r="P174" s="5"/>
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
-    </row>
-    <row r="175" spans="1:18">
+      <c r="S174" s="5"/>
+    </row>
+    <row r="175" spans="1:19">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -14704,8 +15388,9 @@
       <c r="P175" s="5"/>
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
-    </row>
-    <row r="176" spans="1:18">
+      <c r="S175" s="5"/>
+    </row>
+    <row r="176" spans="1:19">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -14724,8 +15409,9 @@
       <c r="P176" s="5"/>
       <c r="Q176" s="5"/>
       <c r="R176" s="5"/>
-    </row>
-    <row r="177" spans="1:18">
+      <c r="S176" s="5"/>
+    </row>
+    <row r="177" spans="1:19">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -14744,8 +15430,9 @@
       <c r="P177" s="5"/>
       <c r="Q177" s="5"/>
       <c r="R177" s="5"/>
-    </row>
-    <row r="178" spans="1:18">
+      <c r="S177" s="5"/>
+    </row>
+    <row r="178" spans="1:19">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -14764,8 +15451,9 @@
       <c r="P178" s="5"/>
       <c r="Q178" s="5"/>
       <c r="R178" s="5"/>
-    </row>
-    <row r="179" spans="1:18">
+      <c r="S178" s="5"/>
+    </row>
+    <row r="179" spans="1:19">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -14784,8 +15472,9 @@
       <c r="P179" s="5"/>
       <c r="Q179" s="5"/>
       <c r="R179" s="5"/>
-    </row>
-    <row r="180" spans="1:18">
+      <c r="S179" s="5"/>
+    </row>
+    <row r="180" spans="1:19">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -14804,8 +15493,9 @@
       <c r="P180" s="5"/>
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
-    </row>
-    <row r="181" spans="1:18">
+      <c r="S180" s="5"/>
+    </row>
+    <row r="181" spans="1:19">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -14824,8 +15514,9 @@
       <c r="P181" s="5"/>
       <c r="Q181" s="5"/>
       <c r="R181" s="5"/>
-    </row>
-    <row r="182" spans="1:18">
+      <c r="S181" s="5"/>
+    </row>
+    <row r="182" spans="1:19">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -14844,8 +15535,9 @@
       <c r="P182" s="5"/>
       <c r="Q182" s="5"/>
       <c r="R182" s="5"/>
-    </row>
-    <row r="183" spans="1:18">
+      <c r="S182" s="5"/>
+    </row>
+    <row r="183" spans="1:19">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -14864,8 +15556,9 @@
       <c r="P183" s="5"/>
       <c r="Q183" s="5"/>
       <c r="R183" s="5"/>
-    </row>
-    <row r="184" spans="1:18">
+      <c r="S183" s="5"/>
+    </row>
+    <row r="184" spans="1:19">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -14884,8 +15577,9 @@
       <c r="P184" s="5"/>
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
-    </row>
-    <row r="185" spans="1:18">
+      <c r="S184" s="5"/>
+    </row>
+    <row r="185" spans="1:19">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -14904,8 +15598,9 @@
       <c r="P185" s="5"/>
       <c r="Q185" s="5"/>
       <c r="R185" s="5"/>
-    </row>
-    <row r="186" spans="1:18">
+      <c r="S185" s="5"/>
+    </row>
+    <row r="186" spans="1:19">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -14924,8 +15619,9 @@
       <c r="P186" s="5"/>
       <c r="Q186" s="5"/>
       <c r="R186" s="5"/>
-    </row>
-    <row r="187" spans="1:18">
+      <c r="S186" s="5"/>
+    </row>
+    <row r="187" spans="1:19">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -14944,8 +15640,9 @@
       <c r="P187" s="5"/>
       <c r="Q187" s="5"/>
       <c r="R187" s="5"/>
-    </row>
-    <row r="188" spans="1:18">
+      <c r="S187" s="5"/>
+    </row>
+    <row r="188" spans="1:19">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -14964,8 +15661,9 @@
       <c r="P188" s="5"/>
       <c r="Q188" s="5"/>
       <c r="R188" s="5"/>
-    </row>
-    <row r="189" spans="1:18">
+      <c r="S188" s="5"/>
+    </row>
+    <row r="189" spans="1:19">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -14984,8 +15682,9 @@
       <c r="P189" s="5"/>
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
-    </row>
-    <row r="190" spans="1:18">
+      <c r="S189" s="5"/>
+    </row>
+    <row r="190" spans="1:19">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -15004,8 +15703,9 @@
       <c r="P190" s="5"/>
       <c r="Q190" s="5"/>
       <c r="R190" s="5"/>
-    </row>
-    <row r="191" spans="1:18">
+      <c r="S190" s="5"/>
+    </row>
+    <row r="191" spans="1:19">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -15024,8 +15724,9 @@
       <c r="P191" s="5"/>
       <c r="Q191" s="5"/>
       <c r="R191" s="5"/>
-    </row>
-    <row r="192" spans="1:18">
+      <c r="S191" s="5"/>
+    </row>
+    <row r="192" spans="1:19">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -15044,8 +15745,9 @@
       <c r="P192" s="5"/>
       <c r="Q192" s="5"/>
       <c r="R192" s="5"/>
-    </row>
-    <row r="193" spans="1:18">
+      <c r="S192" s="5"/>
+    </row>
+    <row r="193" spans="1:19">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -15064,8 +15766,9 @@
       <c r="P193" s="5"/>
       <c r="Q193" s="5"/>
       <c r="R193" s="5"/>
-    </row>
-    <row r="194" spans="1:18">
+      <c r="S193" s="5"/>
+    </row>
+    <row r="194" spans="1:19">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -15084,8 +15787,9 @@
       <c r="P194" s="5"/>
       <c r="Q194" s="5"/>
       <c r="R194" s="5"/>
-    </row>
-    <row r="195" spans="1:18">
+      <c r="S194" s="5"/>
+    </row>
+    <row r="195" spans="1:19">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -15104,8 +15808,9 @@
       <c r="P195" s="5"/>
       <c r="Q195" s="5"/>
       <c r="R195" s="5"/>
-    </row>
-    <row r="196" spans="1:18">
+      <c r="S195" s="5"/>
+    </row>
+    <row r="196" spans="1:19">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -15124,8 +15829,9 @@
       <c r="P196" s="5"/>
       <c r="Q196" s="5"/>
       <c r="R196" s="5"/>
-    </row>
-    <row r="197" spans="1:18">
+      <c r="S196" s="5"/>
+    </row>
+    <row r="197" spans="1:19">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -15144,8 +15850,9 @@
       <c r="P197" s="5"/>
       <c r="Q197" s="5"/>
       <c r="R197" s="5"/>
-    </row>
-    <row r="198" spans="1:18">
+      <c r="S197" s="5"/>
+    </row>
+    <row r="198" spans="1:19">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -15164,8 +15871,9 @@
       <c r="P198" s="5"/>
       <c r="Q198" s="5"/>
       <c r="R198" s="5"/>
-    </row>
-    <row r="199" spans="1:18">
+      <c r="S198" s="5"/>
+    </row>
+    <row r="199" spans="1:19">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -15184,8 +15892,9 @@
       <c r="P199" s="5"/>
       <c r="Q199" s="5"/>
       <c r="R199" s="5"/>
-    </row>
-    <row r="200" spans="1:18">
+      <c r="S199" s="5"/>
+    </row>
+    <row r="200" spans="1:19">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -15204,6 +15913,7 @@
       <c r="P200" s="5"/>
       <c r="Q200" s="5"/>
       <c r="R200" s="5"/>
+      <c r="S200" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
